--- a/data/September Averages.xlsx
+++ b/data/September Averages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanShao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komaralliance-my.sharepoint.com/personal/dshao_komar_com/Documents/Production Logs/September 2025/streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6EE89A-BD85-45D4-89D6-9F31389DF33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{6C6EE89A-BD85-45D4-89D6-9F31389DF33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5527C50-1732-4F6A-8AD2-40848ACB8AA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="65">
   <si>
     <t>Production Output</t>
   </si>
@@ -222,6 +222,18 @@
   <si>
     <t>2025-09-25</t>
   </si>
+  <si>
+    <t>Machine not in operation after 9:45am</t>
+  </si>
+  <si>
+    <t>Not in operation</t>
+  </si>
+  <si>
+    <t>Out of Service</t>
+  </si>
+  <si>
+    <t>No AM Operator</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -316,6 +328,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3217,6 +3231,155 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
+  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
+    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
+    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shift/ Machine">
   <location ref="A21:E46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3364,155 +3527,6 @@
     <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
-  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
-    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
-    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
-  </dataFields>
-  <formats count="5">
     <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -3539,7 +3553,7 @@
       </pivotArea>
     </format>
     <format dxfId="10">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3917,12 +3931,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4173,12 +4187,12 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -6727,7 +6741,7 @@
         <v>45909</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" ref="C130:C161" si="4">TEXT(B130, "dddd")</f>
+        <f t="shared" ref="C130:C156" si="4">TEXT(B130, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="D130">
@@ -7164,13 +7178,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A516" sqref="A516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14338,6 +14356,6543 @@
         <v>40</v>
       </c>
     </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D309" s="12" t="str">
+        <f t="shared" ref="D309:D328" si="0">TEXT(B309, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E309">
+        <v>4512</v>
+      </c>
+      <c r="F309" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G309" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D310" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E310">
+        <v>8740</v>
+      </c>
+      <c r="F310" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G310" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D311" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E311">
+        <v>8524</v>
+      </c>
+      <c r="F311" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D312" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E312">
+        <v>11237</v>
+      </c>
+      <c r="F312" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G312" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E313">
+        <v>2133</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G313" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D314" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E314">
+        <v>4978</v>
+      </c>
+      <c r="F314" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G314" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D315" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E315">
+        <v>5901</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B316" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D316" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E316">
+        <v>2079</v>
+      </c>
+      <c r="F316" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G316" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D317" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E317">
+        <v>4815</v>
+      </c>
+      <c r="F317" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G317" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D318" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E318">
+        <v>2200</v>
+      </c>
+      <c r="F318" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G318" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D319" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E319">
+        <v>7242</v>
+      </c>
+      <c r="F319" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G319" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D320" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E320">
+        <v>6600</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G320" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F321" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G321" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E322">
+        <v>17474</v>
+      </c>
+      <c r="F322" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B323" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E323">
+        <v>3169</v>
+      </c>
+      <c r="F323" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G323" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F324" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G324" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D325" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E325">
+        <v>2480</v>
+      </c>
+      <c r="F325" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G325" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D326" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G326" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D327" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F327" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G327" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D328" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329" s="12" t="str">
+        <f t="shared" ref="D329:D349" si="1">TEXT(B329, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E329" s="12">
+        <v>6019</v>
+      </c>
+      <c r="F329" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G329" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B330" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D330" s="12" t="str">
+        <f>TEXT(B330, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E330" s="12">
+        <v>4213</v>
+      </c>
+      <c r="F330" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G330" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D331" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E331" s="12">
+        <v>7546</v>
+      </c>
+      <c r="F331" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G331" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B332" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E332" s="12">
+        <v>31</v>
+      </c>
+      <c r="F332" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G332" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="12" t="str">
+        <f t="shared" ref="D333:D347" si="2">TEXT(B333, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E333" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F333" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G333" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D334" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E334" s="12">
+        <v>3384</v>
+      </c>
+      <c r="F334" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G334" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B335" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E335" s="12">
+        <v>7245</v>
+      </c>
+      <c r="F335" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G335" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E336" s="12">
+        <v>6452</v>
+      </c>
+      <c r="F336" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G336" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D337" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E337" s="12">
+        <v>14517</v>
+      </c>
+      <c r="F337" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G337" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B338" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D338" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E338" s="12">
+        <v>1997</v>
+      </c>
+      <c r="F338" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D339" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E339" s="12">
+        <v>8715</v>
+      </c>
+      <c r="F339" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G339" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D340" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E340" s="12">
+        <v>10618</v>
+      </c>
+      <c r="F340" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G340" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D341" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E341" s="12">
+        <v>16860</v>
+      </c>
+      <c r="F341" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G341" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D342" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E342" s="12">
+        <v>14450</v>
+      </c>
+      <c r="F342" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D343" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E343" s="12">
+        <v>7042</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G343" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B344" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D344" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E344" s="12">
+        <v>5573</v>
+      </c>
+      <c r="F344" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G344" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B345" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D345" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E345" s="12">
+        <v>1467</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G345" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D346" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G346" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B347" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D347" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G347" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B348" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D348" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G348" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="2">
+        <v>45929</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D349" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G349" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B350" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D350" s="12" t="str">
+        <f t="shared" ref="D350" si="3">TEXT(B350, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E350" s="12">
+        <v>3383</v>
+      </c>
+      <c r="F350" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G350" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B351" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D351" s="12" t="str">
+        <f>TEXT(B351, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E351" s="12">
+        <v>4910</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G351" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D352" s="12" t="str">
+        <f t="shared" ref="D352:D353" si="4">TEXT(B352, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E352" s="12">
+        <v>6282</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B353" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D353" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Friday</v>
+      </c>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G353" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D354" s="12" t="str">
+        <f t="shared" ref="D354:D368" si="5">TEXT(B354, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E354" s="12">
+        <v>1920</v>
+      </c>
+      <c r="F354" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G354" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D355" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E355" s="12">
+        <v>2130</v>
+      </c>
+      <c r="F355" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D356" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E356" s="12">
+        <v>8684</v>
+      </c>
+      <c r="F356" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D357" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E357" s="12">
+        <v>8065</v>
+      </c>
+      <c r="F357" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D358" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G358" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D359" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E359" s="12">
+        <v>1742</v>
+      </c>
+      <c r="F359" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D360" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E360" s="12">
+        <v>3086</v>
+      </c>
+      <c r="F360" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G360" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E361" s="12">
+        <v>11742</v>
+      </c>
+      <c r="F361" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E362" s="12">
+        <v>5887</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G362" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D363" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E363" s="12">
+        <v>18882</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E364" s="12">
+        <v>10544</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G364" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B365" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E365" s="12">
+        <v>1706</v>
+      </c>
+      <c r="F365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G365" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B366" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D366" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E366" s="12">
+        <v>1907</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G366" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D367" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G367" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D368" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D369" s="12" t="str">
+        <f t="shared" ref="D369:D371" si="6">TEXT(B369, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G369" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" s="2">
+        <v>45926</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D370" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Friday</v>
+      </c>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D371" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E371" s="12">
+        <v>3061</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D372" s="12" t="str">
+        <f>TEXT(B372, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B373" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" s="12" t="str">
+        <f t="shared" ref="D373:D374" si="7">TEXT(B373, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E373" s="12">
+        <v>5953</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B374" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D374" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E374" s="12"/>
+      <c r="F374" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G374" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="12" t="str">
+        <f t="shared" ref="D375:D389" si="8">TEXT(B375, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E375" s="12">
+        <v>3270</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G375" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D376" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E376" s="12">
+        <v>169</v>
+      </c>
+      <c r="F376" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G376" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B377" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D377" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E377" s="12">
+        <v>4130</v>
+      </c>
+      <c r="F377" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G377" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D378" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E378" s="12">
+        <v>5133</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D379" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E379" s="12">
+        <v>9648</v>
+      </c>
+      <c r="F379" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G379" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B380" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D380" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E380" s="12">
+        <v>2521</v>
+      </c>
+      <c r="F380" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G380" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D381" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E381" s="12">
+        <v>1671</v>
+      </c>
+      <c r="F381" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G381" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D382" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E382" s="12">
+        <v>12123</v>
+      </c>
+      <c r="F382" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G382" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D383" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E383" s="12">
+        <v>17876</v>
+      </c>
+      <c r="F383" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G383" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E384" s="12">
+        <v>20036</v>
+      </c>
+      <c r="F384" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D385" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E385" s="12">
+        <v>19606</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G385" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B386" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D386" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E386" s="12"/>
+      <c r="F386" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G386" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B387" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E387" s="12"/>
+      <c r="F387" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G387" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D388" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E388" s="12"/>
+      <c r="F388" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B389" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E389" s="12"/>
+      <c r="F389" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D390" s="12" t="str">
+        <f t="shared" ref="D390:D392" si="9">TEXT(B390, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E390" s="12"/>
+      <c r="F390" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D391" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E391" s="12"/>
+      <c r="F391" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D392" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>Friday</v>
+      </c>
+      <c r="E392" s="12">
+        <v>2480</v>
+      </c>
+      <c r="F392" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D393" s="12" t="str">
+        <f>TEXT(B393, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E393" s="12">
+        <v>3901</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G393" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D394" s="12" t="str">
+        <f t="shared" ref="D394:D395" si="10">TEXT(B394, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E394" s="12">
+        <v>5850</v>
+      </c>
+      <c r="F394" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B395" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D395" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="E395" s="12"/>
+      <c r="F395" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G395" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" s="12" t="str">
+        <f t="shared" ref="D396:D410" si="11">TEXT(B396, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E396" s="12">
+        <v>837</v>
+      </c>
+      <c r="F396" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D397" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E397" s="12">
+        <v>1614</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B398" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D398" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E398" s="12">
+        <v>3775</v>
+      </c>
+      <c r="F398" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D399" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E399" s="12">
+        <v>6120</v>
+      </c>
+      <c r="F399" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G399" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D400" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E400" s="12">
+        <v>9588</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D401" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E401" s="12">
+        <v>3062</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G401" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D402" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E402" s="12">
+        <v>3780</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B403" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D403" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E403" s="12">
+        <v>7470</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G403" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D404" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E404" s="12">
+        <v>10784</v>
+      </c>
+      <c r="F404" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D405" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E405" s="12">
+        <v>13535</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D406" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E406" s="12">
+        <v>5145</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E407" s="12">
+        <v>2999</v>
+      </c>
+      <c r="F407" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G407" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B408" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D408" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E408" s="12">
+        <v>261</v>
+      </c>
+      <c r="F408" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B409" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D409" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E409" s="12"/>
+      <c r="F409" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G409" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B410" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D410" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>Friday</v>
+      </c>
+      <c r="E410" s="12"/>
+      <c r="F410" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B411" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D411" s="12" t="str">
+        <f t="shared" ref="D411:D413" si="12">TEXT(B411, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E411" s="12"/>
+      <c r="F411" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G411" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B412" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D412" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>Friday</v>
+      </c>
+      <c r="E412" s="12"/>
+      <c r="F412" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G412" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B413" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D413" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E413" s="12"/>
+      <c r="F413" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G413" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D414" s="12" t="str">
+        <f>TEXT(B414, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E414" s="12">
+        <v>7211</v>
+      </c>
+      <c r="F414" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G414" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B415" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D415" s="12" t="str">
+        <f t="shared" ref="D415:D416" si="13">TEXT(B415, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E415" s="12">
+        <v>5213</v>
+      </c>
+      <c r="F415" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G415" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D416" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E416" s="12">
+        <v>36</v>
+      </c>
+      <c r="F416" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G416" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B417" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D417" s="12" t="str">
+        <f t="shared" ref="D417:D431" si="14">TEXT(B417, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="F417" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G417" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D418" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E418" s="12">
+        <v>2268</v>
+      </c>
+      <c r="F418" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G418" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B419" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D419" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E419" s="12">
+        <v>1484</v>
+      </c>
+      <c r="F419" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G419" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D420" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E420" s="12">
+        <v>5686</v>
+      </c>
+      <c r="F420" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G420" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D421" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E421" s="12">
+        <v>5825</v>
+      </c>
+      <c r="F421" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G421" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B422" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D422" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E422" s="12">
+        <v>1464</v>
+      </c>
+      <c r="F422" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G422" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B423" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C423" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D423" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E423" s="12">
+        <v>6406</v>
+      </c>
+      <c r="F423" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G423" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D424" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E424" s="12">
+        <v>7823</v>
+      </c>
+      <c r="F424" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G424" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B425" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D425" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E425" s="12">
+        <v>15063</v>
+      </c>
+      <c r="F425" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G425" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B426" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D426" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E426" s="12">
+        <v>16797</v>
+      </c>
+      <c r="F426" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G426" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D427" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E427" s="12">
+        <v>5884</v>
+      </c>
+      <c r="F427" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G427" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B428" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D428" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E428" s="12">
+        <v>2612</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D429" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E429" s="12"/>
+      <c r="F429" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G429" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B430" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D430" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E430" s="12"/>
+      <c r="F430" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G430" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B431" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D431" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G431" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B432" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D432" s="12" t="str">
+        <f t="shared" ref="D432:D434" si="15">TEXT(B432, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E432" s="12"/>
+      <c r="F432" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" s="2">
+        <v>45932</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D433" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E433" s="12"/>
+      <c r="F433" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B434" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D434" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>Monday</v>
+      </c>
+      <c r="E434" s="12">
+        <v>3719</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B435" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D435" s="12" t="str">
+        <f>TEXT(B435, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E435" s="12">
+        <v>4751</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G435" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B436" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D436" s="12" t="str">
+        <f t="shared" ref="D436:D437" si="16">TEXT(B436, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E436" s="12">
+        <v>2754</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B437" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D437" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>Monday</v>
+      </c>
+      <c r="E437" s="12"/>
+      <c r="F437" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G437" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D438" s="12" t="str">
+        <f t="shared" ref="D438:D452" si="17">TEXT(B438, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E438" s="12">
+        <v>1426</v>
+      </c>
+      <c r="F438" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D439" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E439" s="12">
+        <v>1268</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B440" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D440" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E440" s="12">
+        <v>3101</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D441" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E441" s="12">
+        <v>4845</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G441" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D442" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E442" s="12">
+        <v>6962</v>
+      </c>
+      <c r="F442" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B443" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D443" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E443" s="12">
+        <v>2976</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G443" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B444" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D444" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E444" s="12">
+        <v>6768</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G444" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B445" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D445" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E445" s="12">
+        <v>3181</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G445" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B446" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D446" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E446" s="12">
+        <v>7864</v>
+      </c>
+      <c r="F446" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G446" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D447" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E447" s="12">
+        <v>16360</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G447" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D448" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E448" s="12">
+        <v>9177</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G448" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B449" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D449" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E449" s="12"/>
+      <c r="F449" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G449" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B450" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D450" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E450" s="12"/>
+      <c r="F450" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G450" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B451" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D451" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E451" s="12"/>
+      <c r="F451" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G451" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B452" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D452" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>Monday</v>
+      </c>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G452" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D453" s="12" t="str">
+        <f t="shared" ref="D453:D455" si="18">TEXT(B453, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E453" s="12"/>
+      <c r="F453" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G453" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" s="2">
+        <v>45936</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D454" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v>Monday</v>
+      </c>
+      <c r="E454" s="12"/>
+      <c r="F454" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G454" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B455" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D455" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E455" s="13">
+        <v>7090</v>
+      </c>
+      <c r="F455" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G455" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B456" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D456" s="13" t="str">
+        <f>TEXT(B456, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E456" s="13">
+        <v>8830</v>
+      </c>
+      <c r="F456" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B457" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D457" s="13" t="str">
+        <f t="shared" ref="D457:D476" si="19">TEXT(B457, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E457" s="13">
+        <v>4464</v>
+      </c>
+      <c r="F457" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G457" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B458" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D458" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E458" s="13"/>
+      <c r="F458" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D459" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E459" s="13">
+        <v>1560</v>
+      </c>
+      <c r="F459" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G459" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D460" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E460" s="13">
+        <v>1824</v>
+      </c>
+      <c r="F460" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G460" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B461" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D461" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E461" s="13">
+        <v>3781</v>
+      </c>
+      <c r="F461" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G461" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C462" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D462" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E462" s="13">
+        <v>5760</v>
+      </c>
+      <c r="F462" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G462" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C463" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D463" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E463" s="13">
+        <v>8325</v>
+      </c>
+      <c r="F463" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G463" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B464" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C464" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D464" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E464" s="13"/>
+      <c r="F464" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G464" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B465" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C465" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D465" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E465" s="13">
+        <v>141</v>
+      </c>
+      <c r="F465" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G465" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B466" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C466" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D466" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E466" s="13">
+        <v>3300</v>
+      </c>
+      <c r="F466" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G466" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B467" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C467" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D467" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E467" s="13">
+        <v>5280</v>
+      </c>
+      <c r="F467" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G467" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B468" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D468" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E468" s="13">
+        <v>15793</v>
+      </c>
+      <c r="F468" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B469" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D469" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E469" s="13">
+        <v>14597</v>
+      </c>
+      <c r="F469" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G469" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B470" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D470" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E470" s="13"/>
+      <c r="F470" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B471" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D471" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E471" s="13">
+        <v>2400</v>
+      </c>
+      <c r="F471" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G471" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B472" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D472" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E472" s="13"/>
+      <c r="F472" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G472" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C473" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D473" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E473" s="13"/>
+      <c r="F473" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G473" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B474" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C474" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D474" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E474" s="13"/>
+      <c r="F474" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G474" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="2">
+        <v>45937</v>
+      </c>
+      <c r="C475" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D475" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E475" s="13"/>
+      <c r="F475" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G475" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B476" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C476" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D476" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E476" s="13">
+        <v>5411</v>
+      </c>
+      <c r="F476" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G476" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C477" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D477" s="13" t="str">
+        <f>TEXT(B477, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E477" s="13">
+        <v>3975</v>
+      </c>
+      <c r="F477" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G477" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B478" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C478" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D478" s="13" t="str">
+        <f t="shared" ref="D478:D497" si="20">TEXT(B478, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E478" s="13">
+        <v>2364</v>
+      </c>
+      <c r="F478" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G478" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B479" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C479" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D479" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E479" s="13">
+        <v>32</v>
+      </c>
+      <c r="F479" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G479" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D480" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E480" s="13">
+        <v>1872</v>
+      </c>
+      <c r="F480" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D481" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E481" s="13">
+        <v>2496</v>
+      </c>
+      <c r="F481" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G481" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B482" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D482" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E482" s="13">
+        <v>6431</v>
+      </c>
+      <c r="F482" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B483" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D483" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E483" s="13">
+        <v>4317</v>
+      </c>
+      <c r="F483" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G483" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D484" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E484" s="13">
+        <v>6804</v>
+      </c>
+      <c r="F484" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G484" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B485" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C485" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D485" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E485" s="13"/>
+      <c r="F485" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G485" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B486" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D486" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E486" s="13"/>
+      <c r="F486" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B487" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C487" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D487" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="F487" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G487" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B488" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D488" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E488" s="13">
+        <v>12829</v>
+      </c>
+      <c r="F488" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G488" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D489" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E489" s="13">
+        <v>16133</v>
+      </c>
+      <c r="F489" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G489" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B490" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D490" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E490" s="13">
+        <v>2044</v>
+      </c>
+      <c r="F490" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G490" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B491" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D491" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E491" s="13"/>
+      <c r="F491" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G491" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B492" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D492" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E492" s="13">
+        <v>1890</v>
+      </c>
+      <c r="F492" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G492" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B493" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C493" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D493" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E493" s="13"/>
+      <c r="F493" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G493" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B494" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D494" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E494" s="13"/>
+      <c r="F494" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G494" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B495" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D495" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E495" s="13"/>
+      <c r="F495" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G495" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D496" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E496" s="13"/>
+      <c r="F496" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G496" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B497" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C497" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D497" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E497" s="13">
+        <v>900</v>
+      </c>
+      <c r="F497" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G497" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B498" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D498" s="13" t="str">
+        <f>TEXT(B498, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E498" s="13"/>
+      <c r="F498" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G498" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B499" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C499" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D499" s="13" t="str">
+        <f t="shared" ref="D499:D517" si="21">TEXT(B499, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E499" s="13">
+        <v>3424</v>
+      </c>
+      <c r="F499" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G499" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B500" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D500" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E500" s="13">
+        <v>180</v>
+      </c>
+      <c r="F500" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G500" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B501" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C501" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D501" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E501" s="13">
+        <v>1272</v>
+      </c>
+      <c r="F501" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G501" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C502" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D502" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E502" s="13">
+        <v>1727</v>
+      </c>
+      <c r="F502" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G502" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B503" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C503" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D503" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E503" s="13">
+        <v>3336</v>
+      </c>
+      <c r="F503" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G503" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C504" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D504" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E504" s="13">
+        <v>4250</v>
+      </c>
+      <c r="F504" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G504" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B505" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C505" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D505" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E505" s="13">
+        <v>6059</v>
+      </c>
+      <c r="F505" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G505" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B506" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C506" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D506" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E506" s="13">
+        <v>1690</v>
+      </c>
+      <c r="F506" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G506" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C507" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D507" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E507" s="13"/>
+      <c r="F507" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G507" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B508" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C508" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D508" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E508" s="13"/>
+      <c r="F508" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G508" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C509" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D509" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E509" s="13">
+        <v>13260</v>
+      </c>
+      <c r="F509" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G509" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B510" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C510" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D510" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E510" s="13">
+        <v>15803</v>
+      </c>
+      <c r="F510" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G510" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B511" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C511" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D511" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E511" s="13">
+        <v>6427</v>
+      </c>
+      <c r="F511" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G511" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B512" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C512" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D512" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E512" s="13">
+        <v>5663</v>
+      </c>
+      <c r="F512" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G512" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B513" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C513" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D513" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E513" s="13">
+        <v>1880</v>
+      </c>
+      <c r="F513" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G513" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C514" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D514" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E514" s="13"/>
+      <c r="F514" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G514" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B515" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C515" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D515" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E515" s="13"/>
+      <c r="F515" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G515" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B516" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C516" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D516" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E516" s="13"/>
+      <c r="F516" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G516" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B517" s="2">
+        <v>45939</v>
+      </c>
+      <c r="C517" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D517" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E517" s="13"/>
+      <c r="F517" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G517" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F518" s="12"/>
+      <c r="G518" s="12"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F519" s="12"/>
+      <c r="G519" s="12"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F520" s="12"/>
+      <c r="G520" s="12"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F521" s="12"/>
+      <c r="G521" s="12"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F522" s="12"/>
+      <c r="G522" s="12"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F523" s="12"/>
+      <c r="G523" s="12"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F524" s="12"/>
+      <c r="G524" s="12"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F525" s="12"/>
+      <c r="G525" s="12"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F526" s="12"/>
+      <c r="G526" s="12"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F527" s="12"/>
+      <c r="G527" s="12"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F528" s="12"/>
+      <c r="G528" s="12"/>
+    </row>
+    <row r="529" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F529" s="12"/>
+      <c r="G529" s="12"/>
+    </row>
+    <row r="530" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F530" s="12"/>
+      <c r="G530" s="12"/>
+    </row>
+    <row r="531" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F531" s="12"/>
+      <c r="G531" s="12"/>
+    </row>
+    <row r="532" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F532" s="12"/>
+      <c r="G532" s="12"/>
+    </row>
+    <row r="533" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F533" s="12"/>
+      <c r="G533" s="12"/>
+    </row>
+    <row r="534" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F534" s="12"/>
+      <c r="G534" s="12"/>
+    </row>
+    <row r="535" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F535" s="12"/>
+      <c r="G535" s="12"/>
+    </row>
+    <row r="536" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F536" s="12"/>
+      <c r="G536" s="12"/>
+    </row>
+    <row r="537" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F537" s="12"/>
+      <c r="G537" s="12"/>
+    </row>
+    <row r="538" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F538" s="12"/>
+      <c r="G538" s="12"/>
+    </row>
+    <row r="539" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F539" s="12"/>
+      <c r="G539" s="12"/>
+    </row>
+    <row r="540" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F540" s="12"/>
+      <c r="G540" s="12"/>
+    </row>
+    <row r="541" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F541" s="12"/>
+      <c r="G541" s="12"/>
+    </row>
+    <row r="542" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F542" s="12"/>
+      <c r="G542" s="12"/>
+    </row>
+    <row r="543" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F543" s="12"/>
+      <c r="G543" s="12"/>
+    </row>
+    <row r="544" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F544" s="12"/>
+      <c r="G544" s="12"/>
+    </row>
+    <row r="545" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F545" s="12"/>
+      <c r="G545" s="12"/>
+    </row>
+    <row r="546" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F546" s="12"/>
+      <c r="G546" s="12"/>
+    </row>
+    <row r="547" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F547" s="12"/>
+      <c r="G547" s="12"/>
+    </row>
+    <row r="548" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F548" s="12"/>
+      <c r="G548" s="12"/>
+    </row>
+    <row r="549" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F549" s="12"/>
+      <c r="G549" s="12"/>
+    </row>
+    <row r="550" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F550" s="12"/>
+      <c r="G550" s="12"/>
+    </row>
+    <row r="551" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F551" s="12"/>
+      <c r="G551" s="12"/>
+    </row>
+    <row r="552" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F552" s="12"/>
+      <c r="G552" s="12"/>
+    </row>
+    <row r="553" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F553" s="12"/>
+      <c r="G553" s="12"/>
+    </row>
+    <row r="554" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F554" s="12"/>
+      <c r="G554" s="12"/>
+    </row>
+    <row r="555" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F555" s="12"/>
+      <c r="G555" s="12"/>
+    </row>
+    <row r="556" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F556" s="12"/>
+      <c r="G556" s="12"/>
+    </row>
+    <row r="557" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F557" s="12"/>
+      <c r="G557" s="12"/>
+    </row>
+    <row r="558" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F558" s="12"/>
+      <c r="G558" s="12"/>
+    </row>
+    <row r="559" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F559" s="12"/>
+      <c r="G559" s="12"/>
+    </row>
+    <row r="560" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F560" s="12"/>
+      <c r="G560" s="12"/>
+    </row>
+    <row r="561" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F561" s="12"/>
+      <c r="G561" s="12"/>
+    </row>
+    <row r="562" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F562" s="12"/>
+      <c r="G562" s="12"/>
+    </row>
+    <row r="563" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F563" s="12"/>
+      <c r="G563" s="12"/>
+    </row>
+    <row r="564" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F564" s="12"/>
+      <c r="G564" s="12"/>
+    </row>
+    <row r="565" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F565" s="12"/>
+      <c r="G565" s="12"/>
+    </row>
+    <row r="566" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F566" s="12"/>
+      <c r="G566" s="12"/>
+    </row>
+    <row r="567" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F567" s="12"/>
+      <c r="G567" s="12"/>
+    </row>
+    <row r="568" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F568" s="12"/>
+      <c r="G568" s="12"/>
+    </row>
+    <row r="569" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F569" s="12"/>
+      <c r="G569" s="12"/>
+    </row>
+    <row r="570" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F570" s="12"/>
+      <c r="G570" s="12"/>
+    </row>
+    <row r="571" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F571" s="12"/>
+      <c r="G571" s="12"/>
+    </row>
+    <row r="572" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F572" s="12"/>
+      <c r="G572" s="12"/>
+    </row>
+    <row r="573" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F573" s="12"/>
+      <c r="G573" s="12"/>
+    </row>
+    <row r="574" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F574" s="12"/>
+      <c r="G574" s="12"/>
+    </row>
+    <row r="575" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F575" s="12"/>
+      <c r="G575" s="12"/>
+    </row>
+    <row r="576" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F576" s="12"/>
+      <c r="G576" s="12"/>
+    </row>
+    <row r="577" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F577" s="12"/>
+      <c r="G577" s="12"/>
+    </row>
+    <row r="578" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F578" s="12"/>
+      <c r="G578" s="12"/>
+    </row>
+    <row r="579" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F579" s="12"/>
+      <c r="G579" s="12"/>
+    </row>
+    <row r="580" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F580" s="12"/>
+      <c r="G580" s="12"/>
+    </row>
+    <row r="581" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F581" s="12"/>
+      <c r="G581" s="12"/>
+    </row>
+    <row r="582" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F582" s="12"/>
+      <c r="G582" s="12"/>
+    </row>
+    <row r="583" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F583" s="12"/>
+      <c r="G583" s="12"/>
+    </row>
+    <row r="584" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F584" s="12"/>
+      <c r="G584" s="12"/>
+    </row>
+    <row r="585" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F585" s="12"/>
+      <c r="G585" s="12"/>
+    </row>
+    <row r="586" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F586" s="12"/>
+      <c r="G586" s="12"/>
+    </row>
+    <row r="587" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F587" s="12"/>
+      <c r="G587" s="12"/>
+    </row>
+    <row r="588" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F588" s="12"/>
+      <c r="G588" s="12"/>
+    </row>
+    <row r="589" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F589" s="12"/>
+      <c r="G589" s="12"/>
+    </row>
+    <row r="590" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F590" s="12"/>
+      <c r="G590" s="12"/>
+    </row>
+    <row r="591" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F591" s="12"/>
+      <c r="G591" s="12"/>
+    </row>
+    <row r="592" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F592" s="12"/>
+      <c r="G592" s="12"/>
+    </row>
+    <row r="593" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F593" s="12"/>
+      <c r="G593" s="12"/>
+    </row>
+    <row r="594" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F594" s="12"/>
+      <c r="G594" s="12"/>
+    </row>
+    <row r="595" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F595" s="12"/>
+      <c r="G595" s="12"/>
+    </row>
+    <row r="596" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F596" s="12"/>
+      <c r="G596" s="12"/>
+    </row>
+    <row r="597" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F597" s="12"/>
+      <c r="G597" s="12"/>
+    </row>
+    <row r="598" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F598" s="12"/>
+      <c r="G598" s="12"/>
+    </row>
+    <row r="599" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F599" s="12"/>
+      <c r="G599" s="12"/>
+    </row>
+    <row r="600" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F600" s="12"/>
+      <c r="G600" s="12"/>
+    </row>
+    <row r="601" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F601" s="12"/>
+      <c r="G601" s="12"/>
+    </row>
+    <row r="602" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F602" s="12"/>
+      <c r="G602" s="12"/>
+    </row>
+    <row r="603" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F603" s="12"/>
+      <c r="G603" s="12"/>
+    </row>
+    <row r="604" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F604" s="12"/>
+      <c r="G604" s="12"/>
+    </row>
+    <row r="605" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F605" s="12"/>
+      <c r="G605" s="12"/>
+    </row>
+    <row r="606" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F606" s="12"/>
+      <c r="G606" s="12"/>
+    </row>
+    <row r="607" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F607" s="12"/>
+      <c r="G607" s="12"/>
+    </row>
+    <row r="608" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F608" s="12"/>
+      <c r="G608" s="12"/>
+    </row>
+    <row r="609" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F609" s="12"/>
+      <c r="G609" s="12"/>
+    </row>
+    <row r="610" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F610" s="12"/>
+      <c r="G610" s="12"/>
+    </row>
+    <row r="611" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F611" s="12"/>
+      <c r="G611" s="12"/>
+    </row>
+    <row r="612" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F612" s="12"/>
+      <c r="G612" s="12"/>
+    </row>
+    <row r="613" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F613" s="12"/>
+      <c r="G613" s="12"/>
+    </row>
+    <row r="614" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F614" s="12"/>
+      <c r="G614" s="12"/>
+    </row>
+    <row r="615" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F615" s="12"/>
+      <c r="G615" s="12"/>
+    </row>
+    <row r="616" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F616" s="12"/>
+      <c r="G616" s="12"/>
+    </row>
+    <row r="617" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F617" s="12"/>
+      <c r="G617" s="12"/>
+    </row>
+    <row r="618" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F618" s="12"/>
+      <c r="G618" s="12"/>
+    </row>
+    <row r="619" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F619" s="12"/>
+      <c r="G619" s="12"/>
+    </row>
+    <row r="620" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F620" s="12"/>
+      <c r="G620" s="12"/>
+    </row>
+    <row r="621" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F621" s="12"/>
+      <c r="G621" s="12"/>
+    </row>
+    <row r="622" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F622" s="12"/>
+      <c r="G622" s="12"/>
+    </row>
+    <row r="623" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F623" s="12"/>
+      <c r="G623" s="12"/>
+    </row>
+    <row r="624" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F624" s="12"/>
+      <c r="G624" s="12"/>
+    </row>
+    <row r="625" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F625" s="12"/>
+      <c r="G625" s="12"/>
+    </row>
+    <row r="626" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F626" s="12"/>
+      <c r="G626" s="12"/>
+    </row>
+    <row r="627" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F627" s="12"/>
+      <c r="G627" s="12"/>
+    </row>
+    <row r="628" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F628" s="12"/>
+      <c r="G628" s="12"/>
+    </row>
+    <row r="629" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F629" s="12"/>
+      <c r="G629" s="12"/>
+    </row>
+    <row r="630" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F630" s="12"/>
+      <c r="G630" s="12"/>
+    </row>
+    <row r="631" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F631" s="12"/>
+      <c r="G631" s="12"/>
+    </row>
+    <row r="632" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F632" s="12"/>
+      <c r="G632" s="12"/>
+    </row>
+    <row r="633" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F633" s="12"/>
+      <c r="G633" s="12"/>
+    </row>
+    <row r="634" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F634" s="12"/>
+      <c r="G634" s="12"/>
+    </row>
+    <row r="635" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F635" s="12"/>
+      <c r="G635" s="12"/>
+    </row>
+    <row r="636" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F636" s="12"/>
+      <c r="G636" s="12"/>
+    </row>
+    <row r="637" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F637" s="12"/>
+      <c r="G637" s="12"/>
+    </row>
+    <row r="638" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F638" s="12"/>
+      <c r="G638" s="12"/>
+    </row>
+    <row r="639" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F639" s="12"/>
+      <c r="G639" s="12"/>
+    </row>
+    <row r="640" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F640" s="12"/>
+      <c r="G640" s="12"/>
+    </row>
+    <row r="641" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F641" s="12"/>
+      <c r="G641" s="12"/>
+    </row>
+    <row r="642" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F642" s="12"/>
+      <c r="G642" s="12"/>
+    </row>
+    <row r="643" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F643" s="12"/>
+      <c r="G643" s="12"/>
+    </row>
+    <row r="644" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F644" s="12"/>
+      <c r="G644" s="12"/>
+    </row>
+    <row r="645" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F645" s="12"/>
+      <c r="G645" s="12"/>
+    </row>
+    <row r="646" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F646" s="12"/>
+      <c r="G646" s="12"/>
+    </row>
+    <row r="647" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F647" s="12"/>
+      <c r="G647" s="12"/>
+    </row>
+    <row r="648" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F648" s="12"/>
+      <c r="G648" s="12"/>
+    </row>
+    <row r="649" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F649" s="12"/>
+      <c r="G649" s="12"/>
+    </row>
+    <row r="650" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F650" s="12"/>
+      <c r="G650" s="12"/>
+    </row>
+    <row r="651" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F651" s="12"/>
+      <c r="G651" s="12"/>
+    </row>
+    <row r="652" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F652" s="12"/>
+      <c r="G652" s="12"/>
+    </row>
+    <row r="653" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F653" s="12"/>
+      <c r="G653" s="12"/>
+    </row>
+    <row r="654" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F654" s="12"/>
+      <c r="G654" s="12"/>
+    </row>
+    <row r="655" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F655" s="12"/>
+      <c r="G655" s="12"/>
+    </row>
+    <row r="656" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F656" s="12"/>
+      <c r="G656" s="12"/>
+    </row>
+    <row r="657" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F657" s="12"/>
+      <c r="G657" s="12"/>
+    </row>
+    <row r="658" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F658" s="12"/>
+      <c r="G658" s="12"/>
+    </row>
+    <row r="659" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F659" s="12"/>
+      <c r="G659" s="12"/>
+    </row>
+    <row r="660" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F660" s="12"/>
+      <c r="G660" s="12"/>
+    </row>
+    <row r="661" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F661" s="12"/>
+      <c r="G661" s="12"/>
+    </row>
+    <row r="662" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F662" s="12"/>
+      <c r="G662" s="12"/>
+    </row>
+    <row r="663" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F663" s="12"/>
+      <c r="G663" s="12"/>
+    </row>
+    <row r="664" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F664" s="12"/>
+      <c r="G664" s="12"/>
+    </row>
+    <row r="665" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F665" s="12"/>
+      <c r="G665" s="12"/>
+    </row>
+    <row r="666" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F666" s="12"/>
+      <c r="G666" s="12"/>
+    </row>
+    <row r="667" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F667" s="12"/>
+      <c r="G667" s="12"/>
+    </row>
+    <row r="668" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F668" s="12"/>
+      <c r="G668" s="12"/>
+    </row>
+    <row r="669" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F669" s="12"/>
+      <c r="G669" s="12"/>
+    </row>
+    <row r="670" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F670" s="12"/>
+      <c r="G670" s="12"/>
+    </row>
+    <row r="671" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F671" s="12"/>
+      <c r="G671" s="12"/>
+    </row>
+    <row r="672" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F672" s="12"/>
+      <c r="G672" s="12"/>
+    </row>
+    <row r="673" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F673" s="12"/>
+      <c r="G673" s="12"/>
+    </row>
+    <row r="674" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F674" s="12"/>
+      <c r="G674" s="12"/>
+    </row>
+    <row r="675" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F675" s="12"/>
+      <c r="G675" s="12"/>
+    </row>
+    <row r="676" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F676" s="12"/>
+      <c r="G676" s="12"/>
+    </row>
+    <row r="677" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F677" s="12"/>
+      <c r="G677" s="12"/>
+    </row>
+    <row r="678" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F678" s="12"/>
+      <c r="G678" s="12"/>
+    </row>
+    <row r="679" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F679" s="12"/>
+      <c r="G679" s="12"/>
+    </row>
+    <row r="680" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F680" s="12"/>
+      <c r="G680" s="12"/>
+    </row>
+    <row r="681" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F681" s="12"/>
+      <c r="G681" s="12"/>
+    </row>
+    <row r="682" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F682" s="12"/>
+      <c r="G682" s="12"/>
+    </row>
+    <row r="683" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F683" s="12"/>
+      <c r="G683" s="12"/>
+    </row>
+    <row r="684" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F684" s="12"/>
+      <c r="G684" s="12"/>
+    </row>
+    <row r="685" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F685" s="12"/>
+      <c r="G685" s="12"/>
+    </row>
+    <row r="686" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F686" s="12"/>
+      <c r="G686" s="12"/>
+    </row>
+    <row r="687" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F687" s="12"/>
+      <c r="G687" s="12"/>
+    </row>
+    <row r="688" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F688" s="12"/>
+      <c r="G688" s="12"/>
+    </row>
+    <row r="689" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F689" s="12"/>
+      <c r="G689" s="12"/>
+    </row>
+    <row r="690" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F690" s="12"/>
+      <c r="G690" s="12"/>
+    </row>
+    <row r="691" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F691" s="12"/>
+      <c r="G691" s="12"/>
+    </row>
+    <row r="692" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F692" s="12"/>
+      <c r="G692" s="12"/>
+    </row>
+    <row r="693" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F693" s="12"/>
+      <c r="G693" s="12"/>
+    </row>
+    <row r="694" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F694" s="12"/>
+      <c r="G694" s="12"/>
+    </row>
+    <row r="695" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F695" s="12"/>
+      <c r="G695" s="12"/>
+    </row>
+    <row r="696" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F696" s="12"/>
+      <c r="G696" s="12"/>
+    </row>
+    <row r="697" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F697" s="12"/>
+      <c r="G697" s="12"/>
+    </row>
+    <row r="698" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F698" s="12"/>
+      <c r="G698" s="12"/>
+    </row>
+    <row r="699" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F699" s="12"/>
+      <c r="G699" s="12"/>
+    </row>
+    <row r="700" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F700" s="12"/>
+      <c r="G700" s="12"/>
+    </row>
+    <row r="701" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F701" s="12"/>
+      <c r="G701" s="12"/>
+    </row>
+    <row r="702" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F702" s="12"/>
+      <c r="G702" s="12"/>
+    </row>
+    <row r="703" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F703" s="12"/>
+      <c r="G703" s="12"/>
+    </row>
+    <row r="704" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F704" s="12"/>
+      <c r="G704" s="12"/>
+    </row>
+    <row r="705" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F705" s="12"/>
+      <c r="G705" s="12"/>
+    </row>
+    <row r="706" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F706" s="12"/>
+      <c r="G706" s="12"/>
+    </row>
+    <row r="707" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F707" s="12"/>
+      <c r="G707" s="12"/>
+    </row>
+    <row r="708" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F708" s="12"/>
+      <c r="G708" s="12"/>
+    </row>
+    <row r="709" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F709" s="12"/>
+      <c r="G709" s="12"/>
+    </row>
+    <row r="710" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F710" s="12"/>
+      <c r="G710" s="12"/>
+    </row>
+    <row r="711" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F711" s="12"/>
+      <c r="G711" s="12"/>
+    </row>
+    <row r="712" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F712" s="12"/>
+      <c r="G712" s="12"/>
+    </row>
+    <row r="713" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F713" s="12"/>
+      <c r="G713" s="12"/>
+    </row>
+    <row r="714" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F714" s="12"/>
+      <c r="G714" s="12"/>
+    </row>
+    <row r="715" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F715" s="12"/>
+      <c r="G715" s="12"/>
+    </row>
+    <row r="716" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F716" s="12"/>
+      <c r="G716" s="12"/>
+    </row>
+    <row r="717" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F717" s="12"/>
+      <c r="G717" s="12"/>
+    </row>
+    <row r="718" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F718" s="12"/>
+      <c r="G718" s="12"/>
+    </row>
+    <row r="719" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F719" s="12"/>
+      <c r="G719" s="12"/>
+    </row>
+    <row r="720" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F720" s="12"/>
+      <c r="G720" s="12"/>
+    </row>
+    <row r="721" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F721" s="12"/>
+      <c r="G721" s="12"/>
+    </row>
+    <row r="722" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F722" s="12"/>
+      <c r="G722" s="12"/>
+    </row>
+    <row r="723" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F723" s="12"/>
+      <c r="G723" s="12"/>
+    </row>
+    <row r="724" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F724" s="12"/>
+      <c r="G724" s="12"/>
+    </row>
+    <row r="725" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F725" s="12"/>
+      <c r="G725" s="12"/>
+    </row>
+    <row r="726" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F726" s="12"/>
+      <c r="G726" s="12"/>
+    </row>
+    <row r="727" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F727" s="12"/>
+      <c r="G727" s="12"/>
+    </row>
+    <row r="728" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F728" s="12"/>
+      <c r="G728" s="12"/>
+    </row>
+    <row r="729" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F729" s="12"/>
+      <c r="G729" s="12"/>
+    </row>
+    <row r="730" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F730" s="12"/>
+      <c r="G730" s="12"/>
+    </row>
+    <row r="731" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F731" s="12"/>
+      <c r="G731" s="12"/>
+    </row>
+    <row r="732" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F732" s="12"/>
+      <c r="G732" s="12"/>
+    </row>
+    <row r="733" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F733" s="12"/>
+      <c r="G733" s="12"/>
+    </row>
+    <row r="734" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F734" s="12"/>
+      <c r="G734" s="12"/>
+    </row>
+    <row r="735" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F735" s="12"/>
+      <c r="G735" s="12"/>
+    </row>
+    <row r="736" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F736" s="12"/>
+      <c r="G736" s="12"/>
+    </row>
+    <row r="737" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F737" s="12"/>
+      <c r="G737" s="12"/>
+    </row>
+    <row r="738" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F738" s="12"/>
+      <c r="G738" s="12"/>
+    </row>
+    <row r="739" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F739" s="12"/>
+      <c r="G739" s="12"/>
+    </row>
+    <row r="740" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F740" s="12"/>
+      <c r="G740" s="12"/>
+    </row>
+    <row r="741" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F741" s="12"/>
+      <c r="G741" s="12"/>
+    </row>
+    <row r="742" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F742" s="12"/>
+      <c r="G742" s="12"/>
+    </row>
+    <row r="743" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F743" s="12"/>
+      <c r="G743" s="12"/>
+    </row>
+    <row r="744" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F744" s="12"/>
+      <c r="G744" s="12"/>
+    </row>
+    <row r="745" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F745" s="12"/>
+      <c r="G745" s="12"/>
+    </row>
+    <row r="746" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F746" s="12"/>
+      <c r="G746" s="12"/>
+    </row>
+    <row r="747" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F747" s="12"/>
+      <c r="G747" s="12"/>
+    </row>
+    <row r="748" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F748" s="12"/>
+      <c r="G748" s="12"/>
+    </row>
+    <row r="749" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F749" s="12"/>
+      <c r="G749" s="12"/>
+    </row>
+    <row r="750" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F750" s="12"/>
+      <c r="G750" s="12"/>
+    </row>
+    <row r="751" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F751" s="12"/>
+      <c r="G751" s="12"/>
+    </row>
+    <row r="752" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F752" s="12"/>
+      <c r="G752" s="12"/>
+    </row>
+    <row r="753" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F753" s="12"/>
+      <c r="G753" s="12"/>
+    </row>
+    <row r="754" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F754" s="12"/>
+      <c r="G754" s="12"/>
+    </row>
+    <row r="755" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F755" s="12"/>
+      <c r="G755" s="12"/>
+    </row>
+    <row r="756" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F756" s="12"/>
+      <c r="G756" s="12"/>
+    </row>
+    <row r="757" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F757" s="12"/>
+      <c r="G757" s="12"/>
+    </row>
+    <row r="758" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F758" s="12"/>
+      <c r="G758" s="12"/>
+    </row>
+    <row r="759" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F759" s="12"/>
+      <c r="G759" s="12"/>
+    </row>
+    <row r="760" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F760" s="12"/>
+      <c r="G760" s="12"/>
+    </row>
+    <row r="761" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F761" s="12"/>
+      <c r="G761" s="12"/>
+    </row>
+    <row r="762" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F762" s="12"/>
+      <c r="G762" s="12"/>
+    </row>
+    <row r="763" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F763" s="12"/>
+      <c r="G763" s="12"/>
+    </row>
+    <row r="764" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F764" s="12"/>
+      <c r="G764" s="12"/>
+    </row>
+    <row r="765" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F765" s="12"/>
+      <c r="G765" s="12"/>
+    </row>
+    <row r="766" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F766" s="12"/>
+      <c r="G766" s="12"/>
+    </row>
+    <row r="767" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F767" s="12"/>
+      <c r="G767" s="12"/>
+    </row>
+    <row r="768" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F768" s="12"/>
+      <c r="G768" s="12"/>
+    </row>
+    <row r="769" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F769" s="12"/>
+      <c r="G769" s="12"/>
+    </row>
+    <row r="770" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F770" s="12"/>
+      <c r="G770" s="12"/>
+    </row>
+    <row r="771" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F771" s="12"/>
+      <c r="G771" s="12"/>
+    </row>
+    <row r="772" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F772" s="12"/>
+      <c r="G772" s="12"/>
+    </row>
+    <row r="773" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F773" s="12"/>
+      <c r="G773" s="12"/>
+    </row>
+    <row r="774" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F774" s="12"/>
+      <c r="G774" s="12"/>
+    </row>
+    <row r="775" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F775" s="12"/>
+      <c r="G775" s="12"/>
+    </row>
+    <row r="776" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F776" s="12"/>
+      <c r="G776" s="12"/>
+    </row>
+    <row r="777" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F777" s="12"/>
+      <c r="G777" s="12"/>
+    </row>
+    <row r="778" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F778" s="12"/>
+      <c r="G778" s="12"/>
+    </row>
+    <row r="779" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F779" s="12"/>
+      <c r="G779" s="12"/>
+    </row>
+    <row r="780" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F780" s="12"/>
+      <c r="G780" s="12"/>
+    </row>
+    <row r="781" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F781" s="12"/>
+      <c r="G781" s="12"/>
+    </row>
+    <row r="782" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F782" s="12"/>
+      <c r="G782" s="12"/>
+    </row>
+    <row r="783" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F783" s="12"/>
+      <c r="G783" s="12"/>
+    </row>
+    <row r="784" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F784" s="12"/>
+      <c r="G784" s="12"/>
+    </row>
+    <row r="785" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F785" s="12"/>
+      <c r="G785" s="12"/>
+    </row>
+    <row r="786" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F786" s="12"/>
+      <c r="G786" s="12"/>
+    </row>
+    <row r="787" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F787" s="12"/>
+      <c r="G787" s="12"/>
+    </row>
+    <row r="788" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F788" s="12"/>
+      <c r="G788" s="12"/>
+    </row>
+    <row r="789" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F789" s="12"/>
+      <c r="G789" s="12"/>
+    </row>
+    <row r="790" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F790" s="12"/>
+      <c r="G790" s="12"/>
+    </row>
+    <row r="791" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F791" s="12"/>
+      <c r="G791" s="12"/>
+    </row>
+    <row r="792" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F792" s="12"/>
+      <c r="G792" s="12"/>
+    </row>
+    <row r="793" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F793" s="12"/>
+      <c r="G793" s="12"/>
+    </row>
+    <row r="794" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F794" s="12"/>
+      <c r="G794" s="12"/>
+    </row>
+    <row r="795" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F795" s="12"/>
+      <c r="G795" s="12"/>
+    </row>
+    <row r="796" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F796" s="12"/>
+      <c r="G796" s="12"/>
+    </row>
+    <row r="797" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F797" s="12"/>
+      <c r="G797" s="12"/>
+    </row>
+    <row r="798" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F798" s="12"/>
+      <c r="G798" s="12"/>
+    </row>
+    <row r="799" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F799" s="12"/>
+      <c r="G799" s="12"/>
+    </row>
+    <row r="800" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F800" s="12"/>
+      <c r="G800" s="12"/>
+    </row>
+    <row r="801" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F801" s="12"/>
+      <c r="G801" s="12"/>
+    </row>
+    <row r="802" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F802" s="12"/>
+      <c r="G802" s="12"/>
+    </row>
+    <row r="803" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F803" s="12"/>
+      <c r="G803" s="12"/>
+    </row>
+    <row r="804" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F804" s="12"/>
+      <c r="G804" s="12"/>
+    </row>
+    <row r="805" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F805" s="12"/>
+      <c r="G805" s="12"/>
+    </row>
+    <row r="806" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F806" s="12"/>
+      <c r="G806" s="12"/>
+    </row>
+    <row r="807" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F807" s="12"/>
+      <c r="G807" s="12"/>
+    </row>
+    <row r="808" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F808" s="12"/>
+      <c r="G808" s="12"/>
+    </row>
+    <row r="809" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F809" s="12"/>
+      <c r="G809" s="12"/>
+    </row>
+    <row r="810" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F810" s="12"/>
+      <c r="G810" s="12"/>
+    </row>
+    <row r="811" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F811" s="12"/>
+      <c r="G811" s="12"/>
+    </row>
+    <row r="812" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F812" s="12"/>
+      <c r="G812" s="12"/>
+    </row>
+    <row r="813" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F813" s="12"/>
+      <c r="G813" s="12"/>
+    </row>
+    <row r="814" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F814" s="12"/>
+      <c r="G814" s="12"/>
+    </row>
+    <row r="815" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F815" s="12"/>
+      <c r="G815" s="12"/>
+    </row>
+    <row r="816" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F816" s="12"/>
+      <c r="G816" s="12"/>
+    </row>
+    <row r="817" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F817" s="12"/>
+      <c r="G817" s="12"/>
+    </row>
+    <row r="818" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F818" s="12"/>
+      <c r="G818" s="12"/>
+    </row>
+    <row r="819" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F819" s="12"/>
+      <c r="G819" s="12"/>
+    </row>
+    <row r="820" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F820" s="12"/>
+      <c r="G820" s="12"/>
+    </row>
+    <row r="821" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F821" s="12"/>
+      <c r="G821" s="12"/>
+    </row>
+    <row r="822" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F822" s="12"/>
+      <c r="G822" s="12"/>
+    </row>
+    <row r="823" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F823" s="12"/>
+      <c r="G823" s="12"/>
+    </row>
+    <row r="824" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F824" s="12"/>
+      <c r="G824" s="12"/>
+    </row>
+    <row r="825" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F825" s="12"/>
+      <c r="G825" s="12"/>
+    </row>
+    <row r="826" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F826" s="12"/>
+      <c r="G826" s="12"/>
+    </row>
+    <row r="827" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F827" s="12"/>
+      <c r="G827" s="12"/>
+    </row>
+    <row r="828" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F828" s="12"/>
+      <c r="G828" s="12"/>
+    </row>
+    <row r="829" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F829" s="12"/>
+      <c r="G829" s="12"/>
+    </row>
+    <row r="830" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F830" s="12"/>
+      <c r="G830" s="12"/>
+    </row>
+    <row r="831" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F831" s="12"/>
+      <c r="G831" s="12"/>
+    </row>
+    <row r="832" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F832" s="12"/>
+      <c r="G832" s="12"/>
+    </row>
+    <row r="833" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F833" s="12"/>
+      <c r="G833" s="12"/>
+    </row>
+    <row r="834" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F834" s="12"/>
+      <c r="G834" s="12"/>
+    </row>
+    <row r="835" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F835" s="12"/>
+      <c r="G835" s="12"/>
+    </row>
+    <row r="836" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F836" s="12"/>
+      <c r="G836" s="12"/>
+    </row>
+    <row r="837" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F837" s="12"/>
+      <c r="G837" s="12"/>
+    </row>
+    <row r="838" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F838" s="12"/>
+      <c r="G838" s="12"/>
+    </row>
+    <row r="839" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F839" s="12"/>
+      <c r="G839" s="12"/>
+    </row>
+    <row r="840" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F840" s="12"/>
+      <c r="G840" s="12"/>
+    </row>
+    <row r="841" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F841" s="12"/>
+      <c r="G841" s="12"/>
+    </row>
+    <row r="842" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F842" s="12"/>
+      <c r="G842" s="12"/>
+    </row>
+    <row r="843" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F843" s="12"/>
+      <c r="G843" s="12"/>
+    </row>
+    <row r="844" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F844" s="12"/>
+      <c r="G844" s="12"/>
+    </row>
+    <row r="845" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F845" s="12"/>
+      <c r="G845" s="12"/>
+    </row>
+    <row r="846" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F846" s="12"/>
+      <c r="G846" s="12"/>
+    </row>
+    <row r="847" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F847" s="12"/>
+      <c r="G847" s="12"/>
+    </row>
+    <row r="848" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F848" s="12"/>
+      <c r="G848" s="12"/>
+    </row>
+    <row r="849" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F849" s="12"/>
+      <c r="G849" s="12"/>
+    </row>
+    <row r="850" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F850" s="12"/>
+      <c r="G850" s="12"/>
+    </row>
+    <row r="851" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F851" s="12"/>
+      <c r="G851" s="12"/>
+    </row>
+    <row r="852" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F852" s="12"/>
+      <c r="G852" s="12"/>
+    </row>
+    <row r="853" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F853" s="12"/>
+      <c r="G853" s="12"/>
+    </row>
+    <row r="854" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F854" s="12"/>
+      <c r="G854" s="12"/>
+    </row>
+    <row r="855" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F855" s="12"/>
+      <c r="G855" s="12"/>
+    </row>
+    <row r="856" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F856" s="12"/>
+      <c r="G856" s="12"/>
+    </row>
+    <row r="857" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F857" s="12"/>
+      <c r="G857" s="12"/>
+    </row>
+    <row r="858" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F858" s="12"/>
+      <c r="G858" s="12"/>
+    </row>
+    <row r="859" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F859" s="12"/>
+      <c r="G859" s="12"/>
+    </row>
+    <row r="860" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F860" s="12"/>
+      <c r="G860" s="12"/>
+    </row>
+    <row r="861" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F861" s="12"/>
+      <c r="G861" s="12"/>
+    </row>
+    <row r="862" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F862" s="12"/>
+      <c r="G862" s="12"/>
+    </row>
+    <row r="863" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F863" s="12"/>
+      <c r="G863" s="12"/>
+    </row>
+    <row r="864" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F864" s="12"/>
+      <c r="G864" s="12"/>
+    </row>
+    <row r="865" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F865" s="12"/>
+      <c r="G865" s="12"/>
+    </row>
+    <row r="866" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F866" s="12"/>
+      <c r="G866" s="12"/>
+    </row>
+    <row r="867" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F867" s="12"/>
+      <c r="G867" s="12"/>
+    </row>
+    <row r="868" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F868" s="12"/>
+      <c r="G868" s="12"/>
+    </row>
+    <row r="869" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F869" s="12"/>
+      <c r="G869" s="12"/>
+    </row>
+    <row r="870" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F870" s="12"/>
+      <c r="G870" s="12"/>
+    </row>
+    <row r="871" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F871" s="12"/>
+      <c r="G871" s="12"/>
+    </row>
+    <row r="872" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F872" s="12"/>
+      <c r="G872" s="12"/>
+    </row>
+    <row r="873" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F873" s="12"/>
+      <c r="G873" s="12"/>
+    </row>
+    <row r="874" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F874" s="12"/>
+      <c r="G874" s="12"/>
+    </row>
+    <row r="875" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F875" s="12"/>
+      <c r="G875" s="12"/>
+    </row>
+    <row r="876" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F876" s="12"/>
+      <c r="G876" s="12"/>
+    </row>
+    <row r="877" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F877" s="12"/>
+      <c r="G877" s="12"/>
+    </row>
+    <row r="878" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F878" s="12"/>
+      <c r="G878" s="12"/>
+    </row>
+    <row r="879" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F879" s="12"/>
+      <c r="G879" s="12"/>
+    </row>
+    <row r="880" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F880" s="12"/>
+      <c r="G880" s="12"/>
+    </row>
+    <row r="881" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F881" s="12"/>
+      <c r="G881" s="12"/>
+    </row>
+    <row r="882" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F882" s="12"/>
+      <c r="G882" s="12"/>
+    </row>
+    <row r="883" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F883" s="12"/>
+      <c r="G883" s="12"/>
+    </row>
+    <row r="884" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F884" s="12"/>
+      <c r="G884" s="12"/>
+    </row>
+    <row r="885" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F885" s="12"/>
+      <c r="G885" s="12"/>
+    </row>
+    <row r="886" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F886" s="12"/>
+      <c r="G886" s="12"/>
+    </row>
+    <row r="887" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F887" s="12"/>
+      <c r="G887" s="12"/>
+    </row>
+    <row r="888" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F888" s="12"/>
+      <c r="G888" s="12"/>
+    </row>
+    <row r="889" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F889" s="12"/>
+      <c r="G889" s="12"/>
+    </row>
+    <row r="890" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F890" s="12"/>
+      <c r="G890" s="12"/>
+    </row>
+    <row r="891" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F891" s="12"/>
+      <c r="G891" s="12"/>
+    </row>
+    <row r="892" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F892" s="12"/>
+      <c r="G892" s="12"/>
+    </row>
+    <row r="893" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F893" s="12"/>
+      <c r="G893" s="12"/>
+    </row>
+    <row r="894" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F894" s="12"/>
+      <c r="G894" s="12"/>
+    </row>
+    <row r="895" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F895" s="12"/>
+      <c r="G895" s="12"/>
+    </row>
+    <row r="896" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F896" s="12"/>
+      <c r="G896" s="12"/>
+    </row>
+    <row r="897" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F897" s="12"/>
+      <c r="G897" s="12"/>
+    </row>
+    <row r="898" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F898" s="12"/>
+      <c r="G898" s="12"/>
+    </row>
+    <row r="899" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F899" s="12"/>
+      <c r="G899" s="12"/>
+    </row>
+    <row r="900" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F900" s="12"/>
+      <c r="G900" s="12"/>
+    </row>
+    <row r="901" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F901" s="12"/>
+      <c r="G901" s="12"/>
+    </row>
+    <row r="902" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F902" s="12"/>
+      <c r="G902" s="12"/>
+    </row>
+    <row r="903" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F903" s="12"/>
+      <c r="G903" s="12"/>
+    </row>
+    <row r="904" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F904" s="12"/>
+      <c r="G904" s="12"/>
+    </row>
+    <row r="905" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F905" s="12"/>
+      <c r="G905" s="12"/>
+    </row>
+    <row r="906" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F906" s="12"/>
+      <c r="G906" s="12"/>
+    </row>
+    <row r="907" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F907" s="12"/>
+      <c r="G907" s="12"/>
+    </row>
+    <row r="908" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F908" s="12"/>
+      <c r="G908" s="12"/>
+    </row>
+    <row r="909" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F909" s="12"/>
+      <c r="G909" s="12"/>
+    </row>
+    <row r="910" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F910" s="12"/>
+      <c r="G910" s="12"/>
+    </row>
+    <row r="911" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F911" s="12"/>
+      <c r="G911" s="12"/>
+    </row>
+    <row r="912" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F912" s="12"/>
+      <c r="G912" s="12"/>
+    </row>
+    <row r="913" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F913" s="12"/>
+      <c r="G913" s="12"/>
+    </row>
+    <row r="914" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F914" s="12"/>
+      <c r="G914" s="12"/>
+    </row>
+    <row r="915" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F915" s="12"/>
+      <c r="G915" s="12"/>
+    </row>
+    <row r="916" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F916" s="12"/>
+      <c r="G916" s="12"/>
+    </row>
+    <row r="917" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F917" s="12"/>
+      <c r="G917" s="12"/>
+    </row>
+    <row r="918" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F918" s="12"/>
+      <c r="G918" s="12"/>
+    </row>
+    <row r="919" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F919" s="12"/>
+      <c r="G919" s="12"/>
+    </row>
+    <row r="920" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F920" s="12"/>
+      <c r="G920" s="12"/>
+    </row>
+    <row r="921" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F921" s="12"/>
+      <c r="G921" s="12"/>
+    </row>
+    <row r="922" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F922" s="12"/>
+      <c r="G922" s="12"/>
+    </row>
+    <row r="923" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F923" s="12"/>
+      <c r="G923" s="12"/>
+    </row>
+    <row r="924" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F924" s="12"/>
+      <c r="G924" s="12"/>
+    </row>
+    <row r="925" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F925" s="12"/>
+      <c r="G925" s="12"/>
+    </row>
+    <row r="926" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F926" s="12"/>
+      <c r="G926" s="12"/>
+    </row>
+    <row r="927" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F927" s="12"/>
+      <c r="G927" s="12"/>
+    </row>
+    <row r="928" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F928" s="12"/>
+      <c r="G928" s="12"/>
+    </row>
+    <row r="929" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F929" s="12"/>
+      <c r="G929" s="12"/>
+    </row>
+    <row r="930" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F930" s="12"/>
+      <c r="G930" s="12"/>
+    </row>
+    <row r="931" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F931" s="12"/>
+      <c r="G931" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/September Averages.xlsx
+++ b/data/September Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://komaralliance-my.sharepoint.com/personal/dshao_komar_com/Documents/Production Logs/September 2025/streamlit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_059E6298F1204774E05AB109A34D64EABD61621E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E865093-3F03-4EDA-93D1-DC3712E99ED1}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_059E6298F1204774E05AB109A34D64EABD61621E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C598FBAF-F7D8-451D-835A-FFAA78862087}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="76">
   <si>
     <t>Production Output</t>
   </si>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -364,6 +364,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3269,7 +3270,156 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shift/ Machine">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
+  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
+    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
+    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shift/ Machine">
   <location ref="A21:E46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -3416,155 +3566,6 @@
     <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="9">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="2"/>
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Machine">
-  <location ref="A5:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Avg Daily LB Produced" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
-    <dataField name="# Shifts" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Most Productive Day" fld="4" subtotal="max" baseField="0" baseItem="5"/>
-    <dataField name="Least Productive Day" fld="4" subtotal="min" baseField="0" baseItem="5"/>
-  </dataFields>
-  <formats count="5">
     <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
@@ -3591,7 +3592,7 @@
       </pivotArea>
     </format>
     <format dxfId="10">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3969,12 +3970,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4225,12 +4226,12 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -7216,15 +7217,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:G704"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B619" sqref="B619"/>
+      <pane ySplit="1" topLeftCell="A679" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E705" sqref="E705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7263,7 +7265,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="12" t="str">
-        <f>TEXT(B2, "dddd")</f>
+        <f t="shared" ref="D2:D65" si="0">TEXT(B2, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E2">
@@ -7288,7 +7290,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="12" t="str">
-        <f>TEXT(B3, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="E3">
@@ -7312,7 +7314,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="12" t="str">
-        <f>TEXT(B4, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="E4">
@@ -7337,7 +7339,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="12" t="str">
-        <f>TEXT(B5, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="F5" t="s">
@@ -7358,7 +7360,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f>TEXT(B6, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E6">
@@ -7382,7 +7384,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f>TEXT(B7, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E7">
@@ -7406,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f>TEXT(B8, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E8">
@@ -7430,7 +7432,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f>TEXT(B9, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E9">
@@ -7455,7 +7457,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f>TEXT(B10, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E10">
@@ -7479,7 +7481,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f>TEXT(B11, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E11">
@@ -7503,7 +7505,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f>TEXT(B12, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E12">
@@ -7527,7 +7529,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f>TEXT(B13, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E13">
@@ -7551,7 +7553,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>TEXT(B14, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E14">
@@ -7575,7 +7577,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f>TEXT(B15, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E15">
@@ -7599,7 +7601,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f>TEXT(B16, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E16">
@@ -7623,7 +7625,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f>TEXT(B17, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E17">
@@ -7647,7 +7649,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="12" t="str">
-        <f>TEXT(B18, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="F18" t="s">
@@ -7668,7 +7670,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f>TEXT(B19, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="F19" t="s">
@@ -7689,7 +7691,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f>TEXT(B20, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E20">
@@ -7713,7 +7715,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f>TEXT(B21, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E21">
@@ -7737,7 +7739,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f>TEXT(B22, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="F22" t="s">
@@ -7758,7 +7760,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f>TEXT(B23, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E23">
@@ -7782,7 +7784,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f>TEXT(B24, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="F24" t="s">
@@ -7803,7 +7805,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f>TEXT(B25, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="F25" t="s">
@@ -7824,7 +7826,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f>TEXT(B26, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="E26">
@@ -7848,7 +7850,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f>TEXT(B27, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E27">
@@ -7872,7 +7874,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f>TEXT(B28, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E28">
@@ -7896,7 +7898,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>TEXT(B29, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E29">
@@ -7920,7 +7922,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>TEXT(B30, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E30">
@@ -7944,7 +7946,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f>TEXT(B31, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E31">
@@ -7968,7 +7970,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f>TEXT(B32, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E32">
@@ -7992,7 +7994,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>TEXT(B33, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E33">
@@ -8017,7 +8019,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>TEXT(B34, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E34">
@@ -8041,7 +8043,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f>TEXT(B35, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E35">
@@ -8065,7 +8067,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="12" t="str">
-        <f>TEXT(B36, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E36">
@@ -8089,7 +8091,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f>TEXT(B37, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F37" t="s">
@@ -8110,7 +8112,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f>TEXT(B38, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F38" t="s">
@@ -8131,7 +8133,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f>TEXT(B39, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E39">
@@ -8155,7 +8157,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f>TEXT(B40, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F40" t="s">
@@ -8176,7 +8178,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f>TEXT(B41, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E41">
@@ -8200,7 +8202,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f>TEXT(B42, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E42">
@@ -8224,7 +8226,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f>TEXT(B43, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F43" t="s">
@@ -8245,7 +8247,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="12" t="str">
-        <f>TEXT(B44, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E44">
@@ -8269,7 +8271,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="12" t="str">
-        <f>TEXT(B45, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F45" t="s">
@@ -8290,7 +8292,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="12" t="str">
-        <f>TEXT(B46, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="F46" t="s">
@@ -8311,7 +8313,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f>TEXT(B47, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="E47">
@@ -8335,7 +8337,7 @@
         <v>24</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f>TEXT(B48, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E48">
@@ -8359,7 +8361,7 @@
         <v>24</v>
       </c>
       <c r="D49" s="12" t="str">
-        <f>TEXT(B49, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="F49" t="s">
@@ -8380,7 +8382,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f>TEXT(B50, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E50">
@@ -8404,7 +8406,7 @@
         <v>24</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f>TEXT(B51, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E51">
@@ -8428,7 +8430,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f>TEXT(B52, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E52">
@@ -8452,7 +8454,7 @@
         <v>24</v>
       </c>
       <c r="D53" s="12" t="str">
-        <f>TEXT(B53, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E53">
@@ -8476,7 +8478,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f>TEXT(B54, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E54">
@@ -8500,7 +8502,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f>TEXT(B55, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E55">
@@ -8524,7 +8526,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f>TEXT(B56, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E56">
@@ -8548,7 +8550,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f>TEXT(B57, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E57">
@@ -8572,7 +8574,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f>TEXT(B58, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E58">
@@ -8596,7 +8598,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="12" t="str">
-        <f>TEXT(B59, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E59">
@@ -8620,7 +8622,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f>TEXT(B60, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="F60" t="s">
@@ -8641,7 +8643,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="12" t="str">
-        <f>TEXT(B61, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E61">
@@ -8665,7 +8667,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="12" t="str">
-        <f>TEXT(B62, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E62">
@@ -8689,7 +8691,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="12" t="str">
-        <f>TEXT(B63, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="F63" t="s">
@@ -8710,7 +8712,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="12" t="str">
-        <f>TEXT(B64, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="E64">
@@ -8734,7 +8736,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="12" t="str">
-        <f>TEXT(B65, "dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="F65" t="s">
@@ -8755,7 +8757,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f>TEXT(B66, "dddd")</f>
+        <f t="shared" ref="D66:D129" si="1">TEXT(B66, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="F66" t="s">
@@ -8776,7 +8778,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f>TEXT(B67, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="E67">
@@ -8800,7 +8802,7 @@
         <v>24</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f>TEXT(B68, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E68">
@@ -8824,7 +8826,7 @@
         <v>24</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f>TEXT(B69, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E69">
@@ -8848,7 +8850,7 @@
         <v>24</v>
       </c>
       <c r="D70" s="12" t="str">
-        <f>TEXT(B70, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E70">
@@ -8872,7 +8874,7 @@
         <v>24</v>
       </c>
       <c r="D71" s="12" t="str">
-        <f>TEXT(B71, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E71">
@@ -8896,7 +8898,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="12" t="str">
-        <f>TEXT(B72, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E72">
@@ -8920,7 +8922,7 @@
         <v>24</v>
       </c>
       <c r="D73" s="12" t="str">
-        <f>TEXT(B73, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E73">
@@ -8944,7 +8946,7 @@
         <v>24</v>
       </c>
       <c r="D74" s="12" t="str">
-        <f>TEXT(B74, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E74">
@@ -8968,7 +8970,7 @@
         <v>24</v>
       </c>
       <c r="D75" s="12" t="str">
-        <f>TEXT(B75, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E75">
@@ -8992,7 +8994,7 @@
         <v>24</v>
       </c>
       <c r="D76" s="12" t="str">
-        <f>TEXT(B76, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E76">
@@ -9016,7 +9018,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="12" t="str">
-        <f>TEXT(B77, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E77">
@@ -9040,7 +9042,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f>TEXT(B78, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E78">
@@ -9064,7 +9066,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f>TEXT(B79, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E79">
@@ -9088,7 +9090,7 @@
         <v>25</v>
       </c>
       <c r="D80" s="12" t="str">
-        <f>TEXT(B80, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="F80" t="s">
@@ -9109,7 +9111,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f>TEXT(B81, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E81">
@@ -9133,7 +9135,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f>TEXT(B82, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E82">
@@ -9157,7 +9159,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="12" t="str">
-        <f>TEXT(B83, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="F83" t="s">
@@ -9178,7 +9180,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="12" t="str">
-        <f>TEXT(B84, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E84">
@@ -9202,7 +9204,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="12" t="str">
-        <f>TEXT(B85, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="F85" t="s">
@@ -9223,7 +9225,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="12" t="str">
-        <f>TEXT(B86, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="F86" t="s">
@@ -9244,7 +9246,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="12" t="str">
-        <f>TEXT(B87, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
       <c r="E87">
@@ -9268,7 +9270,7 @@
         <v>24</v>
       </c>
       <c r="D88" s="12" t="str">
-        <f>TEXT(B88, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E88">
@@ -9292,7 +9294,7 @@
         <v>24</v>
       </c>
       <c r="D89" s="12" t="str">
-        <f>TEXT(B89, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E89">
@@ -9316,7 +9318,7 @@
         <v>24</v>
       </c>
       <c r="D90" s="12" t="str">
-        <f>TEXT(B90, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E90">
@@ -9340,7 +9342,7 @@
         <v>24</v>
       </c>
       <c r="D91" s="12" t="str">
-        <f>TEXT(B91, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E91">
@@ -9364,7 +9366,7 @@
         <v>24</v>
       </c>
       <c r="D92" s="12" t="str">
-        <f>TEXT(B92, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E92">
@@ -9388,7 +9390,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="12" t="str">
-        <f>TEXT(B93, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E93">
@@ -9412,7 +9414,7 @@
         <v>24</v>
       </c>
       <c r="D94" s="12" t="str">
-        <f>TEXT(B94, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E94">
@@ -9436,7 +9438,7 @@
         <v>24</v>
       </c>
       <c r="D95" s="12" t="str">
-        <f>TEXT(B95, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E95">
@@ -9460,7 +9462,7 @@
         <v>24</v>
       </c>
       <c r="D96" s="12" t="str">
-        <f>TEXT(B96, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E96">
@@ -9484,7 +9486,7 @@
         <v>24</v>
       </c>
       <c r="D97" s="12" t="str">
-        <f>TEXT(B97, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E97">
@@ -9508,7 +9510,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="12" t="str">
-        <f>TEXT(B98, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E98">
@@ -9532,7 +9534,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="12" t="str">
-        <f>TEXT(B99, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="F99" t="s">
@@ -9553,7 +9555,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="12" t="str">
-        <f>TEXT(B100, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E100">
@@ -9577,7 +9579,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="12" t="str">
-        <f>TEXT(B101, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E101">
@@ -9601,7 +9603,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="12" t="str">
-        <f>TEXT(B102, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E102">
@@ -9625,7 +9627,7 @@
         <v>25</v>
       </c>
       <c r="D103" s="12" t="str">
-        <f>TEXT(B103, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="F103" t="s">
@@ -9646,7 +9648,7 @@
         <v>25</v>
       </c>
       <c r="D104" s="12" t="str">
-        <f>TEXT(B104, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E104">
@@ -9670,7 +9672,7 @@
         <v>25</v>
       </c>
       <c r="D105" s="12" t="str">
-        <f>TEXT(B105, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="F105" t="s">
@@ -9691,7 +9693,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="12" t="str">
-        <f>TEXT(B106, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="F106" t="s">
@@ -9712,7 +9714,7 @@
         <v>25</v>
       </c>
       <c r="D107" s="12" t="str">
-        <f>TEXT(B107, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
       <c r="E107">
@@ -9736,7 +9738,7 @@
         <v>24</v>
       </c>
       <c r="D108" s="12" t="str">
-        <f>TEXT(B108, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E108">
@@ -9760,7 +9762,7 @@
         <v>24</v>
       </c>
       <c r="D109" s="12" t="str">
-        <f>TEXT(B109, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E109">
@@ -9784,7 +9786,7 @@
         <v>24</v>
       </c>
       <c r="D110" s="12" t="str">
-        <f>TEXT(B110, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E110">
@@ -9808,7 +9810,7 @@
         <v>24</v>
       </c>
       <c r="D111" s="12" t="str">
-        <f>TEXT(B111, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E111">
@@ -9832,7 +9834,7 @@
         <v>24</v>
       </c>
       <c r="D112" s="12" t="str">
-        <f>TEXT(B112, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E112">
@@ -9856,7 +9858,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="12" t="str">
-        <f>TEXT(B113, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E113">
@@ -9880,7 +9882,7 @@
         <v>24</v>
       </c>
       <c r="D114" s="12" t="str">
-        <f>TEXT(B114, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E114">
@@ -9904,7 +9906,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="12" t="str">
-        <f>TEXT(B115, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E115">
@@ -9928,7 +9930,7 @@
         <v>24</v>
       </c>
       <c r="D116" s="12" t="str">
-        <f>TEXT(B116, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E116">
@@ -9952,7 +9954,7 @@
         <v>24</v>
       </c>
       <c r="D117" s="12" t="str">
-        <f>TEXT(B117, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E117">
@@ -9976,7 +9978,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="12" t="str">
-        <f>TEXT(B118, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E118">
@@ -10000,7 +10002,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="12" t="str">
-        <f>TEXT(B119, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="F119" t="s">
@@ -10021,7 +10023,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="12" t="str">
-        <f>TEXT(B120, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E120">
@@ -10045,7 +10047,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="12" t="str">
-        <f>TEXT(B121, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E121">
@@ -10069,7 +10071,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="12" t="str">
-        <f>TEXT(B122, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E122">
@@ -10093,7 +10095,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="12" t="str">
-        <f>TEXT(B123, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="F123" t="s">
@@ -10114,7 +10116,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="12" t="str">
-        <f>TEXT(B124, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E124">
@@ -10138,7 +10140,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="12" t="str">
-        <f>TEXT(B125, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="F125" t="s">
@@ -10159,7 +10161,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="12" t="str">
-        <f>TEXT(B126, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="F126" t="s">
@@ -10180,7 +10182,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="12" t="str">
-        <f>TEXT(B127, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
       <c r="E127">
@@ -10204,7 +10206,7 @@
         <v>24</v>
       </c>
       <c r="D128" s="12" t="str">
-        <f>TEXT(B128, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="E128">
@@ -10228,7 +10230,7 @@
         <v>24</v>
       </c>
       <c r="D129" s="12" t="str">
-        <f>TEXT(B129, "dddd")</f>
+        <f t="shared" si="1"/>
         <v>Monday</v>
       </c>
       <c r="E129">
@@ -10252,7 +10254,7 @@
         <v>24</v>
       </c>
       <c r="D130" s="12" t="str">
-        <f>TEXT(B130, "dddd")</f>
+        <f t="shared" ref="D130:D193" si="2">TEXT(B130, "dddd")</f>
         <v>Monday</v>
       </c>
       <c r="E130">
@@ -10276,7 +10278,7 @@
         <v>24</v>
       </c>
       <c r="D131" s="12" t="str">
-        <f>TEXT(B131, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E131">
@@ -10300,7 +10302,7 @@
         <v>24</v>
       </c>
       <c r="D132" s="12" t="str">
-        <f>TEXT(B132, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E132">
@@ -10324,7 +10326,7 @@
         <v>24</v>
       </c>
       <c r="D133" s="12" t="str">
-        <f>TEXT(B133, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E133">
@@ -10348,7 +10350,7 @@
         <v>24</v>
       </c>
       <c r="D134" s="12" t="str">
-        <f>TEXT(B134, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E134">
@@ -10372,7 +10374,7 @@
         <v>24</v>
       </c>
       <c r="D135" s="12" t="str">
-        <f>TEXT(B135, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E135">
@@ -10396,7 +10398,7 @@
         <v>24</v>
       </c>
       <c r="D136" s="12" t="str">
-        <f>TEXT(B136, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E136">
@@ -10420,7 +10422,7 @@
         <v>24</v>
       </c>
       <c r="D137" s="12" t="str">
-        <f>TEXT(B137, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E137">
@@ -10444,7 +10446,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="12" t="str">
-        <f>TEXT(B138, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E138">
@@ -10468,7 +10470,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="12" t="str">
-        <f>TEXT(B139, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E139">
@@ -10492,7 +10494,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="12" t="str">
-        <f>TEXT(B140, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="F140" t="s">
@@ -10513,7 +10515,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="12" t="str">
-        <f>TEXT(B141, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E141">
@@ -10537,7 +10539,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="12" t="str">
-        <f>TEXT(B142, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="F142" t="s">
@@ -10558,7 +10560,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="12" t="str">
-        <f>TEXT(B143, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="F143" t="s">
@@ -10579,7 +10581,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="12" t="str">
-        <f>TEXT(B144, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E144">
@@ -10603,7 +10605,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="12" t="str">
-        <f>TEXT(B145, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="F145" t="s">
@@ -10624,7 +10626,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="12" t="str">
-        <f>TEXT(B146, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="F146" t="s">
@@ -10645,7 +10647,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="12" t="str">
-        <f>TEXT(B147, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="E147">
@@ -10669,7 +10671,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="12" t="str">
-        <f>TEXT(B148, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E148">
@@ -10693,7 +10695,7 @@
         <v>24</v>
       </c>
       <c r="D149" s="12" t="str">
-        <f>TEXT(B149, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E149">
@@ -10717,7 +10719,7 @@
         <v>24</v>
       </c>
       <c r="D150" s="12" t="str">
-        <f>TEXT(B150, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E150">
@@ -10741,7 +10743,7 @@
         <v>24</v>
       </c>
       <c r="D151" s="12" t="str">
-        <f>TEXT(B151, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E151">
@@ -10765,7 +10767,7 @@
         <v>24</v>
       </c>
       <c r="D152" s="12" t="str">
-        <f>TEXT(B152, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F152" t="s">
@@ -10786,7 +10788,7 @@
         <v>24</v>
       </c>
       <c r="D153" s="12" t="str">
-        <f>TEXT(B153, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E153">
@@ -10810,7 +10812,7 @@
         <v>24</v>
       </c>
       <c r="D154" s="12" t="str">
-        <f>TEXT(B154, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E154">
@@ -10834,7 +10836,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="12" t="str">
-        <f>TEXT(B155, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E155">
@@ -10858,7 +10860,7 @@
         <v>24</v>
       </c>
       <c r="D156" s="12" t="str">
-        <f>TEXT(B156, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E156">
@@ -10882,7 +10884,7 @@
         <v>24</v>
       </c>
       <c r="D157" s="12" t="str">
-        <f>TEXT(B157, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E157">
@@ -10906,7 +10908,7 @@
         <v>25</v>
       </c>
       <c r="D158" s="12" t="str">
-        <f>TEXT(B158, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E158">
@@ -10930,7 +10932,7 @@
         <v>25</v>
       </c>
       <c r="D159" s="12" t="str">
-        <f>TEXT(B159, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E159">
@@ -10954,7 +10956,7 @@
         <v>25</v>
       </c>
       <c r="D160" s="12" t="str">
-        <f>TEXT(B160, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F160" t="s">
@@ -10975,7 +10977,7 @@
         <v>25</v>
       </c>
       <c r="D161" s="12" t="str">
-        <f>TEXT(B161, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E161">
@@ -10999,7 +11001,7 @@
         <v>25</v>
       </c>
       <c r="D162" s="12" t="str">
-        <f>TEXT(B162, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F162" t="s">
@@ -11020,7 +11022,7 @@
         <v>25</v>
       </c>
       <c r="D163" s="12" t="str">
-        <f>TEXT(B163, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F163" t="s">
@@ -11041,7 +11043,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="12" t="str">
-        <f>TEXT(B164, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E164">
@@ -11065,7 +11067,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="12" t="str">
-        <f>TEXT(B165, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F165" t="s">
@@ -11086,7 +11088,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="12" t="str">
-        <f>TEXT(B166, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="F166" t="s">
@@ -11107,7 +11109,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="12" t="str">
-        <f>TEXT(B167, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="E167">
@@ -11131,7 +11133,7 @@
         <v>24</v>
       </c>
       <c r="D168" s="12" t="str">
-        <f>TEXT(B168, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E168">
@@ -11155,7 +11157,7 @@
         <v>24</v>
       </c>
       <c r="D169" s="12" t="str">
-        <f>TEXT(B169, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E169">
@@ -11179,7 +11181,7 @@
         <v>24</v>
       </c>
       <c r="D170" s="12" t="str">
-        <f>TEXT(B170, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E170">
@@ -11203,7 +11205,7 @@
         <v>24</v>
       </c>
       <c r="D171" s="12" t="str">
-        <f>TEXT(B171, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E171">
@@ -11227,7 +11229,7 @@
         <v>24</v>
       </c>
       <c r="D172" s="12" t="str">
-        <f>TEXT(B172, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E172">
@@ -11251,7 +11253,7 @@
         <v>24</v>
       </c>
       <c r="D173" s="12" t="str">
-        <f>TEXT(B173, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="F173" t="s">
@@ -11272,7 +11274,7 @@
         <v>24</v>
       </c>
       <c r="D174" s="12" t="str">
-        <f>TEXT(B174, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E174">
@@ -11296,7 +11298,7 @@
         <v>24</v>
       </c>
       <c r="D175" s="12" t="str">
-        <f>TEXT(B175, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E175">
@@ -11320,7 +11322,7 @@
         <v>24</v>
       </c>
       <c r="D176" s="12" t="str">
-        <f>TEXT(B176, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E176">
@@ -11344,7 +11346,7 @@
         <v>24</v>
       </c>
       <c r="D177" s="12" t="str">
-        <f>TEXT(B177, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E177">
@@ -11368,7 +11370,7 @@
         <v>24</v>
       </c>
       <c r="D178" s="12" t="str">
-        <f>TEXT(B178, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E178">
@@ -11392,7 +11394,7 @@
         <v>25</v>
       </c>
       <c r="D179" s="12" t="str">
-        <f>TEXT(B179, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E179">
@@ -11416,7 +11418,7 @@
         <v>25</v>
       </c>
       <c r="D180" s="12" t="str">
-        <f>TEXT(B180, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E180">
@@ -11440,7 +11442,7 @@
         <v>25</v>
       </c>
       <c r="D181" s="12" t="str">
-        <f>TEXT(B181, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="F181" t="s">
@@ -11461,7 +11463,7 @@
         <v>25</v>
       </c>
       <c r="D182" s="12" t="str">
-        <f>TEXT(B182, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E182">
@@ -11485,7 +11487,7 @@
         <v>25</v>
       </c>
       <c r="D183" s="12" t="str">
-        <f>TEXT(B183, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E183">
@@ -11509,7 +11511,7 @@
         <v>25</v>
       </c>
       <c r="D184" s="12" t="str">
-        <f>TEXT(B184, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="F184" t="s">
@@ -11530,7 +11532,7 @@
         <v>25</v>
       </c>
       <c r="D185" s="12" t="str">
-        <f>TEXT(B185, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E185">
@@ -11554,7 +11556,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="12" t="str">
-        <f>TEXT(B186, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="F186" t="s">
@@ -11575,7 +11577,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="12" t="str">
-        <f>TEXT(B187, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="F187" t="s">
@@ -11596,7 +11598,7 @@
         <v>25</v>
       </c>
       <c r="D188" s="12" t="str">
-        <f>TEXT(B188, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="E188">
@@ -11620,7 +11622,7 @@
         <v>24</v>
       </c>
       <c r="D189" s="12" t="str">
-        <f>TEXT(B189, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="F189" t="s">
@@ -11641,7 +11643,7 @@
         <v>24</v>
       </c>
       <c r="D190" s="12" t="str">
-        <f>TEXT(B190, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="E190">
@@ -11665,7 +11667,7 @@
         <v>24</v>
       </c>
       <c r="D191" s="12" t="str">
-        <f>TEXT(B191, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="E191">
@@ -11689,7 +11691,7 @@
         <v>24</v>
       </c>
       <c r="D192" s="12" t="str">
-        <f>TEXT(B192, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="E192">
@@ -11713,7 +11715,7 @@
         <v>24</v>
       </c>
       <c r="D193" s="12" t="str">
-        <f>TEXT(B193, "dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="E193">
@@ -11737,7 +11739,7 @@
         <v>24</v>
       </c>
       <c r="D194" s="12" t="str">
-        <f>TEXT(B194, "dddd")</f>
+        <f t="shared" ref="D194:D257" si="3">TEXT(B194, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="F194" t="s">
@@ -11758,7 +11760,7 @@
         <v>24</v>
       </c>
       <c r="D195" s="12" t="str">
-        <f>TEXT(B195, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="F195" t="s">
@@ -11779,7 +11781,7 @@
         <v>24</v>
       </c>
       <c r="D196" s="12" t="str">
-        <f>TEXT(B196, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E196">
@@ -11803,7 +11805,7 @@
         <v>24</v>
       </c>
       <c r="D197" s="12" t="str">
-        <f>TEXT(B197, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E197">
@@ -11827,7 +11829,7 @@
         <v>24</v>
       </c>
       <c r="D198" s="12" t="str">
-        <f>TEXT(B198, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E198">
@@ -11851,7 +11853,7 @@
         <v>25</v>
       </c>
       <c r="D199" s="12" t="str">
-        <f>TEXT(B199, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E199">
@@ -11875,7 +11877,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="12" t="str">
-        <f>TEXT(B200, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E200">
@@ -11899,7 +11901,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="12" t="str">
-        <f>TEXT(B201, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="F201" t="s">
@@ -11920,7 +11922,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="12" t="str">
-        <f>TEXT(B202, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E202">
@@ -11944,7 +11946,7 @@
         <v>25</v>
       </c>
       <c r="D203" s="12" t="str">
-        <f>TEXT(B203, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E203">
@@ -11968,7 +11970,7 @@
         <v>25</v>
       </c>
       <c r="D204" s="12" t="str">
-        <f>TEXT(B204, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="F204" t="s">
@@ -11989,7 +11991,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="12" t="str">
-        <f>TEXT(B205, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E205">
@@ -12013,7 +12015,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="12" t="str">
-        <f>TEXT(B206, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="F206" t="s">
@@ -12034,7 +12036,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="12" t="str">
-        <f>TEXT(B207, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="F207" t="s">
@@ -12055,7 +12057,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="12" t="str">
-        <f>TEXT(B208, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="E208">
@@ -12079,7 +12081,7 @@
         <v>24</v>
       </c>
       <c r="D209" s="12" t="str">
-        <f>TEXT(B209, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E209">
@@ -12104,7 +12106,7 @@
         <v>24</v>
       </c>
       <c r="D210" s="12" t="str">
-        <f>TEXT(B210, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E210">
@@ -12128,7 +12130,7 @@
         <v>24</v>
       </c>
       <c r="D211" s="12" t="str">
-        <f>TEXT(B211, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E211">
@@ -12152,7 +12154,7 @@
         <v>24</v>
       </c>
       <c r="D212" s="12" t="str">
-        <f>TEXT(B212, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E212">
@@ -12177,7 +12179,7 @@
         <v>24</v>
       </c>
       <c r="D213" s="12" t="str">
-        <f>TEXT(B213, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E213">
@@ -12201,7 +12203,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="12" t="str">
-        <f>TEXT(B214, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E214">
@@ -12225,7 +12227,7 @@
         <v>24</v>
       </c>
       <c r="D215" s="12" t="str">
-        <f>TEXT(B215, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E215">
@@ -12249,7 +12251,7 @@
         <v>24</v>
       </c>
       <c r="D216" s="12" t="str">
-        <f>TEXT(B216, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E216">
@@ -12274,7 +12276,7 @@
         <v>24</v>
       </c>
       <c r="D217" s="12" t="str">
-        <f>TEXT(B217, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E217">
@@ -12298,7 +12300,7 @@
         <v>24</v>
       </c>
       <c r="D218" s="12" t="str">
-        <f>TEXT(B218, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E218">
@@ -12322,7 +12324,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="12" t="str">
-        <f>TEXT(B219, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E219">
@@ -12347,7 +12349,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="12" t="str">
-        <f>TEXT(B220, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E220">
@@ -12371,7 +12373,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="12" t="str">
-        <f>TEXT(B221, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="F221" t="s">
@@ -12392,7 +12394,7 @@
         <v>25</v>
       </c>
       <c r="D222" s="12" t="str">
-        <f>TEXT(B222, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E222">
@@ -12417,7 +12419,7 @@
         <v>25</v>
       </c>
       <c r="D223" s="12" t="str">
-        <f>TEXT(B223, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="F223" t="s">
@@ -12438,7 +12440,7 @@
         <v>25</v>
       </c>
       <c r="D224" s="12" t="str">
-        <f>TEXT(B224, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="F224" t="s">
@@ -12459,7 +12461,7 @@
         <v>25</v>
       </c>
       <c r="D225" s="12" t="str">
-        <f>TEXT(B225, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E225">
@@ -12483,7 +12485,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="12" t="str">
-        <f>TEXT(B226, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="F226" t="s">
@@ -12504,7 +12506,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="12" t="str">
-        <f>TEXT(B227, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="F227" t="s">
@@ -12525,7 +12527,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="12" t="str">
-        <f>TEXT(B228, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="E228">
@@ -12549,7 +12551,7 @@
         <v>24</v>
       </c>
       <c r="D229" s="12" t="str">
-        <f>TEXT(B229, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E229">
@@ -12573,7 +12575,7 @@
         <v>24</v>
       </c>
       <c r="D230" s="12" t="str">
-        <f>TEXT(B230, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E230">
@@ -12597,7 +12599,7 @@
         <v>24</v>
       </c>
       <c r="D231" s="12" t="str">
-        <f>TEXT(B231, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E231">
@@ -12621,7 +12623,7 @@
         <v>24</v>
       </c>
       <c r="D232" s="12" t="str">
-        <f>TEXT(B232, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F232" t="s">
@@ -12642,7 +12644,7 @@
         <v>24</v>
       </c>
       <c r="D233" s="12" t="str">
-        <f>TEXT(B233, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F233" t="s">
@@ -12663,7 +12665,7 @@
         <v>24</v>
       </c>
       <c r="D234" s="12" t="str">
-        <f>TEXT(B234, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E234">
@@ -12687,7 +12689,7 @@
         <v>24</v>
       </c>
       <c r="D235" s="12" t="str">
-        <f>TEXT(B235, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E235">
@@ -12711,7 +12713,7 @@
         <v>24</v>
       </c>
       <c r="D236" s="12" t="str">
-        <f>TEXT(B236, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E236">
@@ -12735,7 +12737,7 @@
         <v>24</v>
       </c>
       <c r="D237" s="12" t="str">
-        <f>TEXT(B237, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E237">
@@ -12759,7 +12761,7 @@
         <v>24</v>
       </c>
       <c r="D238" s="12" t="str">
-        <f>TEXT(B238, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E238">
@@ -12783,7 +12785,7 @@
         <v>25</v>
       </c>
       <c r="D239" s="12" t="str">
-        <f>TEXT(B239, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E239">
@@ -12807,7 +12809,7 @@
         <v>25</v>
       </c>
       <c r="D240" s="12" t="str">
-        <f>TEXT(B240, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E240">
@@ -12831,7 +12833,7 @@
         <v>25</v>
       </c>
       <c r="D241" s="12" t="str">
-        <f>TEXT(B241, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F241" t="s">
@@ -12852,7 +12854,7 @@
         <v>25</v>
       </c>
       <c r="D242" s="12" t="str">
-        <f>TEXT(B242, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E242">
@@ -12876,7 +12878,7 @@
         <v>25</v>
       </c>
       <c r="D243" s="12" t="str">
-        <f>TEXT(B243, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E243">
@@ -12900,7 +12902,7 @@
         <v>25</v>
       </c>
       <c r="D244" s="12" t="str">
-        <f>TEXT(B244, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F244" t="s">
@@ -12921,7 +12923,7 @@
         <v>25</v>
       </c>
       <c r="D245" s="12" t="str">
-        <f>TEXT(B245, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E245">
@@ -12945,7 +12947,7 @@
         <v>25</v>
       </c>
       <c r="D246" s="12" t="str">
-        <f>TEXT(B246, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F246" t="s">
@@ -12966,7 +12968,7 @@
         <v>25</v>
       </c>
       <c r="D247" s="12" t="str">
-        <f>TEXT(B247, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="F247" t="s">
@@ -12987,7 +12989,7 @@
         <v>25</v>
       </c>
       <c r="D248" s="12" t="str">
-        <f>TEXT(B248, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E248">
@@ -13011,7 +13013,7 @@
         <v>24</v>
       </c>
       <c r="D249" s="12" t="str">
-        <f>TEXT(B249, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E249">
@@ -13035,7 +13037,7 @@
         <v>24</v>
       </c>
       <c r="D250" s="12" t="str">
-        <f>TEXT(B250, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E250">
@@ -13059,7 +13061,7 @@
         <v>24</v>
       </c>
       <c r="D251" s="12" t="str">
-        <f>TEXT(B251, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E251">
@@ -13083,7 +13085,7 @@
         <v>24</v>
       </c>
       <c r="D252" s="12" t="str">
-        <f>TEXT(B252, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="F252" t="s">
@@ -13104,7 +13106,7 @@
         <v>24</v>
       </c>
       <c r="D253" s="12" t="str">
-        <f>TEXT(B253, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E253">
@@ -13128,7 +13130,7 @@
         <v>24</v>
       </c>
       <c r="D254" s="12" t="str">
-        <f>TEXT(B254, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E254">
@@ -13152,7 +13154,7 @@
         <v>24</v>
       </c>
       <c r="D255" s="12" t="str">
-        <f>TEXT(B255, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E255">
@@ -13176,7 +13178,7 @@
         <v>24</v>
       </c>
       <c r="D256" s="12" t="str">
-        <f>TEXT(B256, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E256">
@@ -13200,7 +13202,7 @@
         <v>24</v>
       </c>
       <c r="D257" s="12" t="str">
-        <f>TEXT(B257, "dddd")</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="E257">
@@ -13224,7 +13226,7 @@
         <v>24</v>
       </c>
       <c r="D258" s="12" t="str">
-        <f>TEXT(B258, "dddd")</f>
+        <f t="shared" ref="D258:D321" si="4">TEXT(B258, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="E258">
@@ -13248,7 +13250,7 @@
         <v>25</v>
       </c>
       <c r="D259" s="12" t="str">
-        <f>TEXT(B259, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="E259">
@@ -13272,7 +13274,7 @@
         <v>25</v>
       </c>
       <c r="D260" s="12" t="str">
-        <f>TEXT(B260, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="E260">
@@ -13296,7 +13298,7 @@
         <v>25</v>
       </c>
       <c r="D261" s="12" t="str">
-        <f>TEXT(B261, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="F261" t="s">
@@ -13317,7 +13319,7 @@
         <v>25</v>
       </c>
       <c r="D262" s="12" t="str">
-        <f>TEXT(B262, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="E262">
@@ -13341,7 +13343,7 @@
         <v>25</v>
       </c>
       <c r="D263" s="12" t="str">
-        <f>TEXT(B263, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="E263">
@@ -13365,7 +13367,7 @@
         <v>25</v>
       </c>
       <c r="D264" s="12" t="str">
-        <f>TEXT(B264, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="F264" t="s">
@@ -13386,7 +13388,7 @@
         <v>25</v>
       </c>
       <c r="D265" s="12" t="str">
-        <f>TEXT(B265, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="E265">
@@ -13410,7 +13412,7 @@
         <v>25</v>
       </c>
       <c r="D266" s="12" t="str">
-        <f>TEXT(B266, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="F266" t="s">
@@ -13431,7 +13433,7 @@
         <v>25</v>
       </c>
       <c r="D267" s="12" t="str">
-        <f>TEXT(B267, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="F267" t="s">
@@ -13452,7 +13454,7 @@
         <v>25</v>
       </c>
       <c r="D268" s="12" t="str">
-        <f>TEXT(B268, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Tuesday</v>
       </c>
       <c r="F268" t="s">
@@ -13473,7 +13475,7 @@
         <v>24</v>
       </c>
       <c r="D269" s="12" t="str">
-        <f>TEXT(B269, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E269">
@@ -13497,7 +13499,7 @@
         <v>24</v>
       </c>
       <c r="D270" s="12" t="str">
-        <f>TEXT(B270, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E270">
@@ -13521,7 +13523,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="12" t="str">
-        <f>TEXT(B271, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E271">
@@ -13545,7 +13547,7 @@
         <v>24</v>
       </c>
       <c r="D272" s="12" t="str">
-        <f>TEXT(B272, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E272">
@@ -13569,7 +13571,7 @@
         <v>24</v>
       </c>
       <c r="D273" s="12" t="str">
-        <f>TEXT(B273, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E273">
@@ -13593,7 +13595,7 @@
         <v>24</v>
       </c>
       <c r="D274" s="12" t="str">
-        <f>TEXT(B274, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E274">
@@ -13617,7 +13619,7 @@
         <v>24</v>
       </c>
       <c r="D275" s="12" t="str">
-        <f>TEXT(B275, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E275">
@@ -13641,7 +13643,7 @@
         <v>24</v>
       </c>
       <c r="D276" s="12" t="str">
-        <f>TEXT(B276, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E276">
@@ -13665,7 +13667,7 @@
         <v>24</v>
       </c>
       <c r="D277" s="12" t="str">
-        <f>TEXT(B277, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E277">
@@ -13689,7 +13691,7 @@
         <v>24</v>
       </c>
       <c r="D278" s="12" t="str">
-        <f>TEXT(B278, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E278">
@@ -13713,7 +13715,7 @@
         <v>25</v>
       </c>
       <c r="D279" s="12" t="str">
-        <f>TEXT(B279, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E279">
@@ -13737,7 +13739,7 @@
         <v>25</v>
       </c>
       <c r="D280" s="12" t="str">
-        <f>TEXT(B280, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E280">
@@ -13761,7 +13763,7 @@
         <v>25</v>
       </c>
       <c r="D281" s="12" t="str">
-        <f>TEXT(B281, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="F281" t="s">
@@ -13782,7 +13784,7 @@
         <v>25</v>
       </c>
       <c r="D282" s="12" t="str">
-        <f>TEXT(B282, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E282">
@@ -13806,7 +13808,7 @@
         <v>25</v>
       </c>
       <c r="D283" s="12" t="str">
-        <f>TEXT(B283, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="F283" t="s">
@@ -13827,7 +13829,7 @@
         <v>25</v>
       </c>
       <c r="D284" s="12" t="str">
-        <f>TEXT(B284, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="F284" t="s">
@@ -13848,7 +13850,7 @@
         <v>25</v>
       </c>
       <c r="D285" s="12" t="str">
-        <f>TEXT(B285, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E285">
@@ -13872,7 +13874,7 @@
         <v>25</v>
       </c>
       <c r="D286" s="12" t="str">
-        <f>TEXT(B286, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="F286" t="s">
@@ -13893,7 +13895,7 @@
         <v>25</v>
       </c>
       <c r="D287" s="12" t="str">
-        <f>TEXT(B287, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="F287" t="s">
@@ -13914,7 +13916,7 @@
         <v>25</v>
       </c>
       <c r="D288" s="12" t="str">
-        <f>TEXT(B288, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Wednesday</v>
       </c>
       <c r="E288">
@@ -13938,7 +13940,7 @@
         <v>24</v>
       </c>
       <c r="D289" s="12" t="str">
-        <f>TEXT(B289, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E289">
@@ -13962,7 +13964,7 @@
         <v>24</v>
       </c>
       <c r="D290" s="12" t="str">
-        <f>TEXT(B290, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E290">
@@ -13986,7 +13988,7 @@
         <v>24</v>
       </c>
       <c r="D291" s="12" t="str">
-        <f>TEXT(B291, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E291">
@@ -14010,7 +14012,7 @@
         <v>24</v>
       </c>
       <c r="D292" s="12" t="str">
-        <f>TEXT(B292, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E292">
@@ -14034,7 +14036,7 @@
         <v>24</v>
       </c>
       <c r="D293" s="12" t="str">
-        <f>TEXT(B293, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E293">
@@ -14058,7 +14060,7 @@
         <v>24</v>
       </c>
       <c r="D294" s="12" t="str">
-        <f>TEXT(B294, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E294">
@@ -14082,7 +14084,7 @@
         <v>24</v>
       </c>
       <c r="D295" s="12" t="str">
-        <f>TEXT(B295, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E295">
@@ -14106,7 +14108,7 @@
         <v>24</v>
       </c>
       <c r="D296" s="12" t="str">
-        <f>TEXT(B296, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E296">
@@ -14130,7 +14132,7 @@
         <v>24</v>
       </c>
       <c r="D297" s="12" t="str">
-        <f>TEXT(B297, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E297">
@@ -14154,7 +14156,7 @@
         <v>24</v>
       </c>
       <c r="D298" s="12" t="str">
-        <f>TEXT(B298, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E298">
@@ -14178,7 +14180,7 @@
         <v>25</v>
       </c>
       <c r="D299" s="12" t="str">
-        <f>TEXT(B299, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E299">
@@ -14202,7 +14204,7 @@
         <v>25</v>
       </c>
       <c r="D300" s="12" t="str">
-        <f>TEXT(B300, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E300">
@@ -14226,7 +14228,7 @@
         <v>25</v>
       </c>
       <c r="D301" s="12" t="str">
-        <f>TEXT(B301, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="F301" t="s">
@@ -14247,7 +14249,7 @@
         <v>25</v>
       </c>
       <c r="D302" s="12" t="str">
-        <f>TEXT(B302, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E302">
@@ -14271,7 +14273,7 @@
         <v>25</v>
       </c>
       <c r="D303" s="12" t="str">
-        <f>TEXT(B303, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E303">
@@ -14295,7 +14297,7 @@
         <v>25</v>
       </c>
       <c r="D304" s="12" t="str">
-        <f>TEXT(B304, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="F304" t="s">
@@ -14316,7 +14318,7 @@
         <v>25</v>
       </c>
       <c r="D305" s="12" t="str">
-        <f>TEXT(B305, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E305">
@@ -14340,7 +14342,7 @@
         <v>25</v>
       </c>
       <c r="D306" s="12" t="str">
-        <f>TEXT(B306, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="F306" t="s">
@@ -14361,7 +14363,7 @@
         <v>25</v>
       </c>
       <c r="D307" s="12" t="str">
-        <f>TEXT(B307, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="F307" t="s">
@@ -14382,7 +14384,7 @@
         <v>25</v>
       </c>
       <c r="D308" s="12" t="str">
-        <f>TEXT(B308, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Thursday</v>
       </c>
       <c r="E308">
@@ -14406,7 +14408,7 @@
         <v>24</v>
       </c>
       <c r="D309" s="12" t="str">
-        <f>TEXT(B309, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E309">
@@ -14430,7 +14432,7 @@
         <v>24</v>
       </c>
       <c r="D310" s="12" t="str">
-        <f>TEXT(B310, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E310">
@@ -14454,7 +14456,7 @@
         <v>24</v>
       </c>
       <c r="D311" s="12" t="str">
-        <f>TEXT(B311, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E311">
@@ -14478,7 +14480,7 @@
         <v>24</v>
       </c>
       <c r="D312" s="12" t="str">
-        <f>TEXT(B312, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="F312" t="s">
@@ -14499,7 +14501,7 @@
         <v>24</v>
       </c>
       <c r="D313" s="12" t="str">
-        <f>TEXT(B313, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E313">
@@ -14523,7 +14525,7 @@
         <v>24</v>
       </c>
       <c r="D314" s="12" t="str">
-        <f>TEXT(B314, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E314">
@@ -14547,7 +14549,7 @@
         <v>24</v>
       </c>
       <c r="D315" s="12" t="str">
-        <f>TEXT(B315, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E315">
@@ -14571,7 +14573,7 @@
         <v>24</v>
       </c>
       <c r="D316" s="12" t="str">
-        <f>TEXT(B316, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E316">
@@ -14595,7 +14597,7 @@
         <v>24</v>
       </c>
       <c r="D317" s="12" t="str">
-        <f>TEXT(B317, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E317">
@@ -14619,7 +14621,7 @@
         <v>24</v>
       </c>
       <c r="D318" s="12" t="str">
-        <f>TEXT(B318, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E318">
@@ -14643,7 +14645,7 @@
         <v>24</v>
       </c>
       <c r="D319" s="12" t="str">
-        <f>TEXT(B319, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E319">
@@ -14667,7 +14669,7 @@
         <v>25</v>
       </c>
       <c r="D320" s="12" t="str">
-        <f>TEXT(B320, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E320">
@@ -14691,7 +14693,7 @@
         <v>25</v>
       </c>
       <c r="D321" s="12" t="str">
-        <f>TEXT(B321, "dddd")</f>
+        <f t="shared" si="4"/>
         <v>Friday</v>
       </c>
       <c r="E321">
@@ -14715,7 +14717,7 @@
         <v>25</v>
       </c>
       <c r="D322" s="12" t="str">
-        <f>TEXT(B322, "dddd")</f>
+        <f t="shared" ref="D322:D385" si="5">TEXT(B322, "dddd")</f>
         <v>Friday</v>
       </c>
       <c r="F322" t="s">
@@ -14736,7 +14738,7 @@
         <v>25</v>
       </c>
       <c r="D323" s="12" t="str">
-        <f>TEXT(B323, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="E323">
@@ -14760,7 +14762,7 @@
         <v>25</v>
       </c>
       <c r="D324" s="12" t="str">
-        <f>TEXT(B324, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="E324">
@@ -14784,7 +14786,7 @@
         <v>25</v>
       </c>
       <c r="D325" s="12" t="str">
-        <f>TEXT(B325, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="F325" t="s">
@@ -14805,7 +14807,7 @@
         <v>25</v>
       </c>
       <c r="D326" s="12" t="str">
-        <f>TEXT(B326, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="F326" t="s">
@@ -14826,7 +14828,7 @@
         <v>25</v>
       </c>
       <c r="D327" s="12" t="str">
-        <f>TEXT(B327, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="F327" t="s">
@@ -14847,7 +14849,7 @@
         <v>25</v>
       </c>
       <c r="D328" s="12" t="str">
-        <f>TEXT(B328, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="F328" t="s">
@@ -14868,7 +14870,7 @@
         <v>25</v>
       </c>
       <c r="D329" s="12" t="str">
-        <f>TEXT(B329, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Friday</v>
       </c>
       <c r="E329">
@@ -14892,7 +14894,7 @@
         <v>24</v>
       </c>
       <c r="D330" s="12" t="str">
-        <f>TEXT(B330, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E330">
@@ -14916,7 +14918,7 @@
         <v>24</v>
       </c>
       <c r="D331" s="12" t="str">
-        <f>TEXT(B331, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E331">
@@ -14940,7 +14942,7 @@
         <v>24</v>
       </c>
       <c r="D332" s="12" t="str">
-        <f>TEXT(B332, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E332">
@@ -14964,7 +14966,7 @@
         <v>24</v>
       </c>
       <c r="D333" s="12" t="str">
-        <f>TEXT(B333, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E333">
@@ -14988,7 +14990,7 @@
         <v>24</v>
       </c>
       <c r="D334" s="12" t="str">
-        <f>TEXT(B334, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E334">
@@ -15012,7 +15014,7 @@
         <v>24</v>
       </c>
       <c r="D335" s="12" t="str">
-        <f>TEXT(B335, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E335">
@@ -15036,7 +15038,7 @@
         <v>24</v>
       </c>
       <c r="D336" s="12" t="str">
-        <f>TEXT(B336, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E336">
@@ -15060,7 +15062,7 @@
         <v>24</v>
       </c>
       <c r="D337" s="12" t="str">
-        <f>TEXT(B337, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E337">
@@ -15084,7 +15086,7 @@
         <v>24</v>
       </c>
       <c r="D338" s="12" t="str">
-        <f>TEXT(B338, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E338">
@@ -15108,7 +15110,7 @@
         <v>24</v>
       </c>
       <c r="D339" s="12" t="str">
-        <f>TEXT(B339, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E339">
@@ -15132,7 +15134,7 @@
         <v>24</v>
       </c>
       <c r="D340" s="12" t="str">
-        <f>TEXT(B340, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E340">
@@ -15156,7 +15158,7 @@
         <v>25</v>
       </c>
       <c r="D341" s="12" t="str">
-        <f>TEXT(B341, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E341">
@@ -15180,7 +15182,7 @@
         <v>25</v>
       </c>
       <c r="D342" s="12" t="str">
-        <f>TEXT(B342, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E342">
@@ -15204,7 +15206,7 @@
         <v>25</v>
       </c>
       <c r="D343" s="12" t="str">
-        <f>TEXT(B343, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="F343" t="s">
@@ -15225,7 +15227,7 @@
         <v>25</v>
       </c>
       <c r="D344" s="12" t="str">
-        <f>TEXT(B344, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E344">
@@ -15249,7 +15251,7 @@
         <v>25</v>
       </c>
       <c r="D345" s="12" t="str">
-        <f>TEXT(B345, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E345">
@@ -15273,7 +15275,7 @@
         <v>25</v>
       </c>
       <c r="D346" s="12" t="str">
-        <f>TEXT(B346, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="F346" t="s">
@@ -15294,7 +15296,7 @@
         <v>25</v>
       </c>
       <c r="D347" s="12" t="str">
-        <f>TEXT(B347, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E347">
@@ -15318,7 +15320,7 @@
         <v>25</v>
       </c>
       <c r="D348" s="12" t="str">
-        <f>TEXT(B348, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="F348" t="s">
@@ -15339,7 +15341,7 @@
         <v>25</v>
       </c>
       <c r="D349" s="12" t="str">
-        <f>TEXT(B349, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="F349" t="s">
@@ -15360,7 +15362,7 @@
         <v>25</v>
       </c>
       <c r="D350" s="12" t="str">
-        <f>TEXT(B350, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Monday</v>
       </c>
       <c r="E350">
@@ -15384,7 +15386,7 @@
         <v>24</v>
       </c>
       <c r="D351" s="12" t="str">
-        <f>TEXT(B351, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E351">
@@ -15408,7 +15410,7 @@
         <v>24</v>
       </c>
       <c r="D352" s="12" t="str">
-        <f>TEXT(B352, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E352">
@@ -15432,7 +15434,7 @@
         <v>24</v>
       </c>
       <c r="D353" s="12" t="str">
-        <f>TEXT(B353, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E353">
@@ -15456,7 +15458,7 @@
         <v>24</v>
       </c>
       <c r="D354" s="12" t="str">
-        <f>TEXT(B354, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E354">
@@ -15480,7 +15482,7 @@
         <v>24</v>
       </c>
       <c r="D355" s="12" t="str">
-        <f>TEXT(B355, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E355">
@@ -15504,7 +15506,7 @@
         <v>24</v>
       </c>
       <c r="D356" s="12" t="str">
-        <f>TEXT(B356, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E356">
@@ -15528,7 +15530,7 @@
         <v>24</v>
       </c>
       <c r="D357" s="12" t="str">
-        <f>TEXT(B357, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E357">
@@ -15552,7 +15554,7 @@
         <v>24</v>
       </c>
       <c r="D358" s="12" t="str">
-        <f>TEXT(B358, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E358">
@@ -15576,7 +15578,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="12" t="str">
-        <f>TEXT(B359, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E359">
@@ -15600,7 +15602,7 @@
         <v>24</v>
       </c>
       <c r="D360" s="12" t="str">
-        <f>TEXT(B360, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E360">
@@ -15624,7 +15626,7 @@
         <v>25</v>
       </c>
       <c r="D361" s="12" t="str">
-        <f>TEXT(B361, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E361">
@@ -15648,7 +15650,7 @@
         <v>25</v>
       </c>
       <c r="D362" s="12" t="str">
-        <f>TEXT(B362, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E362">
@@ -15672,7 +15674,7 @@
         <v>25</v>
       </c>
       <c r="D363" s="12" t="str">
-        <f>TEXT(B363, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="F363" t="s">
@@ -15693,7 +15695,7 @@
         <v>25</v>
       </c>
       <c r="D364" s="12" t="str">
-        <f>TEXT(B364, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E364">
@@ -15717,7 +15719,7 @@
         <v>25</v>
       </c>
       <c r="D365" s="12" t="str">
-        <f>TEXT(B365, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E365">
@@ -15741,7 +15743,7 @@
         <v>25</v>
       </c>
       <c r="D366" s="12" t="str">
-        <f>TEXT(B366, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="F366" t="s">
@@ -15762,7 +15764,7 @@
         <v>25</v>
       </c>
       <c r="D367" s="12" t="str">
-        <f>TEXT(B367, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="E367">
@@ -15786,7 +15788,7 @@
         <v>25</v>
       </c>
       <c r="D368" s="12" t="str">
-        <f>TEXT(B368, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="F368" t="s">
@@ -15807,7 +15809,7 @@
         <v>25</v>
       </c>
       <c r="D369" s="12" t="str">
-        <f>TEXT(B369, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="F369" t="s">
@@ -15828,7 +15830,7 @@
         <v>25</v>
       </c>
       <c r="D370" s="12" t="str">
-        <f>TEXT(B370, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Tuesday</v>
       </c>
       <c r="F370" t="s">
@@ -15849,7 +15851,7 @@
         <v>24</v>
       </c>
       <c r="D371" s="12" t="str">
-        <f>TEXT(B371, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E371">
@@ -15873,7 +15875,7 @@
         <v>24</v>
       </c>
       <c r="D372" s="12" t="str">
-        <f>TEXT(B372, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E372">
@@ -15897,7 +15899,7 @@
         <v>24</v>
       </c>
       <c r="D373" s="12" t="str">
-        <f>TEXT(B373, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E373">
@@ -15921,7 +15923,7 @@
         <v>24</v>
       </c>
       <c r="D374" s="12" t="str">
-        <f>TEXT(B374, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="F374" t="s">
@@ -15942,7 +15944,7 @@
         <v>24</v>
       </c>
       <c r="D375" s="12" t="str">
-        <f>TEXT(B375, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E375">
@@ -15966,7 +15968,7 @@
         <v>24</v>
       </c>
       <c r="D376" s="12" t="str">
-        <f>TEXT(B376, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E376">
@@ -15990,7 +15992,7 @@
         <v>24</v>
       </c>
       <c r="D377" s="12" t="str">
-        <f>TEXT(B377, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E377">
@@ -16014,7 +16016,7 @@
         <v>24</v>
       </c>
       <c r="D378" s="12" t="str">
-        <f>TEXT(B378, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E378">
@@ -16038,7 +16040,7 @@
         <v>24</v>
       </c>
       <c r="D379" s="12" t="str">
-        <f>TEXT(B379, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E379">
@@ -16062,7 +16064,7 @@
         <v>24</v>
       </c>
       <c r="D380" s="12" t="str">
-        <f>TEXT(B380, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E380">
@@ -16086,7 +16088,7 @@
         <v>24</v>
       </c>
       <c r="D381" s="12" t="str">
-        <f>TEXT(B381, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="F381" t="s">
@@ -16107,7 +16109,7 @@
         <v>25</v>
       </c>
       <c r="D382" s="12" t="str">
-        <f>TEXT(B382, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E382">
@@ -16131,7 +16133,7 @@
         <v>25</v>
       </c>
       <c r="D383" s="12" t="str">
-        <f>TEXT(B383, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="F383" t="s">
@@ -16152,7 +16154,7 @@
         <v>25</v>
       </c>
       <c r="D384" s="12" t="str">
-        <f>TEXT(B384, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="F384" t="s">
@@ -16173,7 +16175,7 @@
         <v>25</v>
       </c>
       <c r="D385" s="12" t="str">
-        <f>TEXT(B385, "dddd")</f>
+        <f t="shared" si="5"/>
         <v>Wednesday</v>
       </c>
       <c r="E385">
@@ -16197,7 +16199,7 @@
         <v>25</v>
       </c>
       <c r="D386" s="12" t="str">
-        <f>TEXT(B386, "dddd")</f>
+        <f t="shared" ref="D386:D449" si="6">TEXT(B386, "dddd")</f>
         <v>Wednesday</v>
       </c>
       <c r="E386">
@@ -16221,7 +16223,7 @@
         <v>25</v>
       </c>
       <c r="D387" s="12" t="str">
-        <f>TEXT(B387, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
       <c r="F387" t="s">
@@ -16242,7 +16244,7 @@
         <v>25</v>
       </c>
       <c r="D388" s="12" t="str">
-        <f>TEXT(B388, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
       <c r="E388">
@@ -16266,7 +16268,7 @@
         <v>25</v>
       </c>
       <c r="D389" s="12" t="str">
-        <f>TEXT(B389, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
       <c r="F389" t="s">
@@ -16287,7 +16289,7 @@
         <v>25</v>
       </c>
       <c r="D390" s="12" t="str">
-        <f>TEXT(B390, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
       <c r="F390" t="s">
@@ -16308,7 +16310,7 @@
         <v>25</v>
       </c>
       <c r="D391" s="12" t="str">
-        <f>TEXT(B391, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Wednesday</v>
       </c>
       <c r="F391" t="s">
@@ -16329,7 +16331,7 @@
         <v>24</v>
       </c>
       <c r="D392" s="12" t="str">
-        <f>TEXT(B392, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E392">
@@ -16353,7 +16355,7 @@
         <v>24</v>
       </c>
       <c r="D393" s="12" t="str">
-        <f>TEXT(B393, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F393" t="s">
@@ -16374,7 +16376,7 @@
         <v>24</v>
       </c>
       <c r="D394" s="12" t="str">
-        <f>TEXT(B394, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E394">
@@ -16398,7 +16400,7 @@
         <v>24</v>
       </c>
       <c r="D395" s="12" t="str">
-        <f>TEXT(B395, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E395">
@@ -16422,7 +16424,7 @@
         <v>24</v>
       </c>
       <c r="D396" s="12" t="str">
-        <f>TEXT(B396, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E396">
@@ -16446,7 +16448,7 @@
         <v>24</v>
       </c>
       <c r="D397" s="12" t="str">
-        <f>TEXT(B397, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F397" t="s">
@@ -16467,7 +16469,7 @@
         <v>24</v>
       </c>
       <c r="D398" s="12" t="str">
-        <f>TEXT(B398, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E398">
@@ -16491,7 +16493,7 @@
         <v>24</v>
       </c>
       <c r="D399" s="12" t="str">
-        <f>TEXT(B399, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E399">
@@ -16515,7 +16517,7 @@
         <v>24</v>
       </c>
       <c r="D400" s="12" t="str">
-        <f>TEXT(B400, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E400">
@@ -16539,7 +16541,7 @@
         <v>24</v>
       </c>
       <c r="D401" s="12" t="str">
-        <f>TEXT(B401, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E401">
@@ -16563,7 +16565,7 @@
         <v>24</v>
       </c>
       <c r="D402" s="12" t="str">
-        <f>TEXT(B402, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E402">
@@ -16587,7 +16589,7 @@
         <v>25</v>
       </c>
       <c r="D403" s="12" t="str">
-        <f>TEXT(B403, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E403">
@@ -16611,7 +16613,7 @@
         <v>25</v>
       </c>
       <c r="D404" s="12" t="str">
-        <f>TEXT(B404, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E404">
@@ -16635,7 +16637,7 @@
         <v>25</v>
       </c>
       <c r="D405" s="12" t="str">
-        <f>TEXT(B405, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F405" t="s">
@@ -16656,7 +16658,7 @@
         <v>25</v>
       </c>
       <c r="D406" s="12" t="str">
-        <f>TEXT(B406, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E406">
@@ -16680,7 +16682,7 @@
         <v>25</v>
       </c>
       <c r="D407" s="12" t="str">
-        <f>TEXT(B407, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E407">
@@ -16704,7 +16706,7 @@
         <v>25</v>
       </c>
       <c r="D408" s="12" t="str">
-        <f>TEXT(B408, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F408" t="s">
@@ -16725,7 +16727,7 @@
         <v>25</v>
       </c>
       <c r="D409" s="12" t="str">
-        <f>TEXT(B409, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="E409">
@@ -16749,7 +16751,7 @@
         <v>25</v>
       </c>
       <c r="D410" s="12" t="str">
-        <f>TEXT(B410, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F410" t="s">
@@ -16770,7 +16772,7 @@
         <v>25</v>
       </c>
       <c r="D411" s="12" t="str">
-        <f>TEXT(B411, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F411" t="s">
@@ -16791,7 +16793,7 @@
         <v>25</v>
       </c>
       <c r="D412" s="12" t="str">
-        <f>TEXT(B412, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Thursday</v>
       </c>
       <c r="F412" t="s">
@@ -16812,7 +16814,7 @@
         <v>24</v>
       </c>
       <c r="D413" s="12" t="str">
-        <f>TEXT(B413, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E413">
@@ -16836,7 +16838,7 @@
         <v>24</v>
       </c>
       <c r="D414" s="12" t="str">
-        <f>TEXT(B414, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E414">
@@ -16860,7 +16862,7 @@
         <v>24</v>
       </c>
       <c r="D415" s="12" t="str">
-        <f>TEXT(B415, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E415">
@@ -16884,7 +16886,7 @@
         <v>24</v>
       </c>
       <c r="D416" s="12" t="str">
-        <f>TEXT(B416, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="F416" t="s">
@@ -16905,7 +16907,7 @@
         <v>24</v>
       </c>
       <c r="D417" s="12" t="str">
-        <f>TEXT(B417, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E417">
@@ -16929,7 +16931,7 @@
         <v>24</v>
       </c>
       <c r="D418" s="12" t="str">
-        <f>TEXT(B418, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E418">
@@ -16953,7 +16955,7 @@
         <v>24</v>
       </c>
       <c r="D419" s="12" t="str">
-        <f>TEXT(B419, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E419">
@@ -16977,7 +16979,7 @@
         <v>24</v>
       </c>
       <c r="D420" s="12" t="str">
-        <f>TEXT(B420, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E420">
@@ -17001,7 +17003,7 @@
         <v>24</v>
       </c>
       <c r="D421" s="12" t="str">
-        <f>TEXT(B421, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E421">
@@ -17025,7 +17027,7 @@
         <v>24</v>
       </c>
       <c r="D422" s="12" t="str">
-        <f>TEXT(B422, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E422">
@@ -17049,7 +17051,7 @@
         <v>24</v>
       </c>
       <c r="D423" s="12" t="str">
-        <f>TEXT(B423, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E423">
@@ -17073,7 +17075,7 @@
         <v>25</v>
       </c>
       <c r="D424" s="12" t="str">
-        <f>TEXT(B424, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E424">
@@ -17097,7 +17099,7 @@
         <v>25</v>
       </c>
       <c r="D425" s="12" t="str">
-        <f>TEXT(B425, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E425">
@@ -17121,7 +17123,7 @@
         <v>25</v>
       </c>
       <c r="D426" s="12" t="str">
-        <f>TEXT(B426, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="F426" t="s">
@@ -17142,7 +17144,7 @@
         <v>25</v>
       </c>
       <c r="D427" s="12" t="str">
-        <f>TEXT(B427, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E427">
@@ -17166,7 +17168,7 @@
         <v>25</v>
       </c>
       <c r="D428" s="12" t="str">
-        <f>TEXT(B428, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E428">
@@ -17190,7 +17192,7 @@
         <v>25</v>
       </c>
       <c r="D429" s="12" t="str">
-        <f>TEXT(B429, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="F429" t="s">
@@ -17211,7 +17213,7 @@
         <v>25</v>
       </c>
       <c r="D430" s="12" t="str">
-        <f>TEXT(B430, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E430">
@@ -17235,7 +17237,7 @@
         <v>25</v>
       </c>
       <c r="D431" s="12" t="str">
-        <f>TEXT(B431, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="F431" t="s">
@@ -17256,7 +17258,7 @@
         <v>25</v>
       </c>
       <c r="D432" s="12" t="str">
-        <f>TEXT(B432, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="F432" t="s">
@@ -17277,7 +17279,7 @@
         <v>25</v>
       </c>
       <c r="D433" s="12" t="str">
-        <f>TEXT(B433, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Friday</v>
       </c>
       <c r="E433">
@@ -17301,7 +17303,7 @@
         <v>24</v>
       </c>
       <c r="D434" s="12" t="str">
-        <f>TEXT(B434, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E434">
@@ -17325,7 +17327,7 @@
         <v>24</v>
       </c>
       <c r="D435" s="12" t="str">
-        <f>TEXT(B435, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E435">
@@ -17349,7 +17351,7 @@
         <v>24</v>
       </c>
       <c r="D436" s="12" t="str">
-        <f>TEXT(B436, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E436">
@@ -17373,7 +17375,7 @@
         <v>24</v>
       </c>
       <c r="D437" s="12" t="str">
-        <f>TEXT(B437, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="F437" t="s">
@@ -17394,7 +17396,7 @@
         <v>24</v>
       </c>
       <c r="D438" s="12" t="str">
-        <f>TEXT(B438, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E438">
@@ -17418,7 +17420,7 @@
         <v>24</v>
       </c>
       <c r="D439" s="12" t="str">
-        <f>TEXT(B439, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E439">
@@ -17442,7 +17444,7 @@
         <v>24</v>
       </c>
       <c r="D440" s="12" t="str">
-        <f>TEXT(B440, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E440">
@@ -17466,7 +17468,7 @@
         <v>24</v>
       </c>
       <c r="D441" s="12" t="str">
-        <f>TEXT(B441, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E441">
@@ -17490,7 +17492,7 @@
         <v>24</v>
       </c>
       <c r="D442" s="12" t="str">
-        <f>TEXT(B442, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E442">
@@ -17514,7 +17516,7 @@
         <v>24</v>
       </c>
       <c r="D443" s="12" t="str">
-        <f>TEXT(B443, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E443">
@@ -17538,7 +17540,7 @@
         <v>24</v>
       </c>
       <c r="D444" s="12" t="str">
-        <f>TEXT(B444, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="F444" t="s">
@@ -17559,7 +17561,7 @@
         <v>25</v>
       </c>
       <c r="D445" s="12" t="str">
-        <f>TEXT(B445, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E445">
@@ -17583,7 +17585,7 @@
         <v>25</v>
       </c>
       <c r="D446" s="12" t="str">
-        <f>TEXT(B446, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E446">
@@ -17607,7 +17609,7 @@
         <v>25</v>
       </c>
       <c r="D447" s="12" t="str">
-        <f>TEXT(B447, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="F447" t="s">
@@ -17628,7 +17630,7 @@
         <v>25</v>
       </c>
       <c r="D448" s="12" t="str">
-        <f>TEXT(B448, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E448">
@@ -17652,7 +17654,7 @@
         <v>25</v>
       </c>
       <c r="D449" s="12" t="str">
-        <f>TEXT(B449, "dddd")</f>
+        <f t="shared" si="6"/>
         <v>Monday</v>
       </c>
       <c r="E449">
@@ -17676,7 +17678,7 @@
         <v>25</v>
       </c>
       <c r="D450" s="12" t="str">
-        <f>TEXT(B450, "dddd")</f>
+        <f t="shared" ref="D450:D513" si="7">TEXT(B450, "dddd")</f>
         <v>Monday</v>
       </c>
       <c r="F450" t="s">
@@ -17697,7 +17699,7 @@
         <v>25</v>
       </c>
       <c r="D451" s="12" t="str">
-        <f>TEXT(B451, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
       <c r="E451">
@@ -17721,7 +17723,7 @@
         <v>25</v>
       </c>
       <c r="D452" s="12" t="str">
-        <f>TEXT(B452, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
       <c r="F452" t="s">
@@ -17742,7 +17744,7 @@
         <v>25</v>
       </c>
       <c r="D453" s="12" t="str">
-        <f>TEXT(B453, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
       <c r="F453" t="s">
@@ -17763,7 +17765,7 @@
         <v>25</v>
       </c>
       <c r="D454" s="12" t="str">
-        <f>TEXT(B454, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Monday</v>
       </c>
       <c r="F454" t="s">
@@ -17784,7 +17786,7 @@
         <v>24</v>
       </c>
       <c r="D455" s="12" t="str">
-        <f>TEXT(B455, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E455">
@@ -17808,7 +17810,7 @@
         <v>24</v>
       </c>
       <c r="D456" s="12" t="str">
-        <f>TEXT(B456, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E456">
@@ -17832,7 +17834,7 @@
         <v>24</v>
       </c>
       <c r="D457" s="12" t="str">
-        <f>TEXT(B457, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E457">
@@ -17856,7 +17858,7 @@
         <v>24</v>
       </c>
       <c r="D458" s="12" t="str">
-        <f>TEXT(B458, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F458" t="s">
@@ -17877,7 +17879,7 @@
         <v>24</v>
       </c>
       <c r="D459" s="12" t="str">
-        <f>TEXT(B459, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E459">
@@ -17901,7 +17903,7 @@
         <v>24</v>
       </c>
       <c r="D460" s="12" t="str">
-        <f>TEXT(B460, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E460">
@@ -17925,7 +17927,7 @@
         <v>24</v>
       </c>
       <c r="D461" s="12" t="str">
-        <f>TEXT(B461, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E461">
@@ -17949,7 +17951,7 @@
         <v>24</v>
       </c>
       <c r="D462" s="12" t="str">
-        <f>TEXT(B462, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E462">
@@ -17973,7 +17975,7 @@
         <v>24</v>
       </c>
       <c r="D463" s="12" t="str">
-        <f>TEXT(B463, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F463" t="s">
@@ -17994,7 +17996,7 @@
         <v>24</v>
       </c>
       <c r="D464" s="12" t="str">
-        <f>TEXT(B464, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E464">
@@ -18018,7 +18020,7 @@
         <v>24</v>
       </c>
       <c r="D465" s="12" t="str">
-        <f>TEXT(B465, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F465" t="s">
@@ -18039,7 +18041,7 @@
         <v>25</v>
       </c>
       <c r="D466" s="12" t="str">
-        <f>TEXT(B466, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E466">
@@ -18063,7 +18065,7 @@
         <v>25</v>
       </c>
       <c r="D467" s="12" t="str">
-        <f>TEXT(B467, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E467">
@@ -18087,7 +18089,7 @@
         <v>25</v>
       </c>
       <c r="D468" s="12" t="str">
-        <f>TEXT(B468, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F468" t="s">
@@ -18108,7 +18110,7 @@
         <v>25</v>
       </c>
       <c r="D469" s="12" t="str">
-        <f>TEXT(B469, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E469">
@@ -18132,7 +18134,7 @@
         <v>25</v>
       </c>
       <c r="D470" s="12" t="str">
-        <f>TEXT(B470, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E470">
@@ -18156,7 +18158,7 @@
         <v>25</v>
       </c>
       <c r="D471" s="12" t="str">
-        <f>TEXT(B471, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F471" t="s">
@@ -18177,7 +18179,7 @@
         <v>25</v>
       </c>
       <c r="D472" s="12" t="str">
-        <f>TEXT(B472, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E472">
@@ -18201,7 +18203,7 @@
         <v>25</v>
       </c>
       <c r="D473" s="12" t="str">
-        <f>TEXT(B473, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F473" t="s">
@@ -18222,7 +18224,7 @@
         <v>25</v>
       </c>
       <c r="D474" s="12" t="str">
-        <f>TEXT(B474, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="F474" t="s">
@@ -18243,7 +18245,7 @@
         <v>25</v>
       </c>
       <c r="D475" s="12" t="str">
-        <f>TEXT(B475, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Tuesday</v>
       </c>
       <c r="E475">
@@ -18267,7 +18269,7 @@
         <v>24</v>
       </c>
       <c r="D476" s="12" t="str">
-        <f>TEXT(B476, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F476" t="s">
@@ -18288,7 +18290,7 @@
         <v>24</v>
       </c>
       <c r="D477" s="12" t="str">
-        <f>TEXT(B477, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E477">
@@ -18312,7 +18314,7 @@
         <v>24</v>
       </c>
       <c r="D478" s="12" t="str">
-        <f>TEXT(B478, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E478">
@@ -18336,7 +18338,7 @@
         <v>24</v>
       </c>
       <c r="D479" s="12" t="str">
-        <f>TEXT(B479, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E479">
@@ -18360,7 +18362,7 @@
         <v>24</v>
       </c>
       <c r="D480" s="12" t="str">
-        <f>TEXT(B480, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E480">
@@ -18384,7 +18386,7 @@
         <v>24</v>
       </c>
       <c r="D481" s="12" t="str">
-        <f>TEXT(B481, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E481">
@@ -18408,7 +18410,7 @@
         <v>24</v>
       </c>
       <c r="D482" s="12" t="str">
-        <f>TEXT(B482, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E482">
@@ -18432,7 +18434,7 @@
         <v>24</v>
       </c>
       <c r="D483" s="12" t="str">
-        <f>TEXT(B483, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E483">
@@ -18456,7 +18458,7 @@
         <v>24</v>
       </c>
       <c r="D484" s="12" t="str">
-        <f>TEXT(B484, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F484" t="s">
@@ -18477,7 +18479,7 @@
         <v>24</v>
       </c>
       <c r="D485" s="12" t="str">
-        <f>TEXT(B485, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E485">
@@ -18501,7 +18503,7 @@
         <v>24</v>
       </c>
       <c r="D486" s="12" t="str">
-        <f>TEXT(B486, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F486" t="s">
@@ -18522,7 +18524,7 @@
         <v>25</v>
       </c>
       <c r="D487" s="12" t="str">
-        <f>TEXT(B487, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F487" t="s">
@@ -18543,7 +18545,7 @@
         <v>25</v>
       </c>
       <c r="D488" s="12" t="str">
-        <f>TEXT(B488, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E488">
@@ -18567,7 +18569,7 @@
         <v>25</v>
       </c>
       <c r="D489" s="12" t="str">
-        <f>TEXT(B489, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F489" t="s">
@@ -18588,7 +18590,7 @@
         <v>25</v>
       </c>
       <c r="D490" s="12" t="str">
-        <f>TEXT(B490, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E490">
@@ -18612,7 +18614,7 @@
         <v>25</v>
       </c>
       <c r="D491" s="12" t="str">
-        <f>TEXT(B491, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E491">
@@ -18636,7 +18638,7 @@
         <v>25</v>
       </c>
       <c r="D492" s="12" t="str">
-        <f>TEXT(B492, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F492" t="s">
@@ -18657,7 +18659,7 @@
         <v>25</v>
       </c>
       <c r="D493" s="12" t="str">
-        <f>TEXT(B493, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E493">
@@ -18681,7 +18683,7 @@
         <v>25</v>
       </c>
       <c r="D494" s="12" t="str">
-        <f>TEXT(B494, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F494" t="s">
@@ -18702,7 +18704,7 @@
         <v>25</v>
       </c>
       <c r="D495" s="12" t="str">
-        <f>TEXT(B495, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="F495" t="s">
@@ -18723,7 +18725,7 @@
         <v>25</v>
       </c>
       <c r="D496" s="12" t="str">
-        <f>TEXT(B496, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Wednesday</v>
       </c>
       <c r="E496">
@@ -18747,7 +18749,7 @@
         <v>24</v>
       </c>
       <c r="D497" s="12" t="str">
-        <f>TEXT(B497, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="F497" t="s">
@@ -18768,7 +18770,7 @@
         <v>24</v>
       </c>
       <c r="D498" s="12" t="str">
-        <f>TEXT(B498, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E498">
@@ -18792,7 +18794,7 @@
         <v>24</v>
       </c>
       <c r="D499" s="12" t="str">
-        <f>TEXT(B499, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E499">
@@ -18816,7 +18818,7 @@
         <v>24</v>
       </c>
       <c r="D500" s="12" t="str">
-        <f>TEXT(B500, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E500">
@@ -18840,7 +18842,7 @@
         <v>24</v>
       </c>
       <c r="D501" s="12" t="str">
-        <f>TEXT(B501, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E501">
@@ -18864,7 +18866,7 @@
         <v>24</v>
       </c>
       <c r="D502" s="12" t="str">
-        <f>TEXT(B502, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E502">
@@ -18888,7 +18890,7 @@
         <v>24</v>
       </c>
       <c r="D503" s="12" t="str">
-        <f>TEXT(B503, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E503">
@@ -18912,7 +18914,7 @@
         <v>24</v>
       </c>
       <c r="D504" s="12" t="str">
-        <f>TEXT(B504, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E504">
@@ -18936,7 +18938,7 @@
         <v>24</v>
       </c>
       <c r="D505" s="12" t="str">
-        <f>TEXT(B505, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E505">
@@ -18960,7 +18962,7 @@
         <v>24</v>
       </c>
       <c r="D506" s="12" t="str">
-        <f>TEXT(B506, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E506">
@@ -18984,7 +18986,7 @@
         <v>24</v>
       </c>
       <c r="D507" s="12" t="str">
-        <f>TEXT(B507, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E507">
@@ -19008,7 +19010,7 @@
         <v>25</v>
       </c>
       <c r="D508" s="12" t="str">
-        <f>TEXT(B508, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="F508" t="s">
@@ -19029,7 +19031,7 @@
         <v>25</v>
       </c>
       <c r="D509" s="12" t="str">
-        <f>TEXT(B509, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="F509" t="s">
@@ -19050,7 +19052,7 @@
         <v>25</v>
       </c>
       <c r="D510" s="12" t="str">
-        <f>TEXT(B510, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="F510" t="s">
@@ -19071,7 +19073,7 @@
         <v>25</v>
       </c>
       <c r="D511" s="12" t="str">
-        <f>TEXT(B511, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E511">
@@ -19095,7 +19097,7 @@
         <v>25</v>
       </c>
       <c r="D512" s="12" t="str">
-        <f>TEXT(B512, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="E512">
@@ -19119,7 +19121,7 @@
         <v>25</v>
       </c>
       <c r="D513" s="12" t="str">
-        <f>TEXT(B513, "dddd")</f>
+        <f t="shared" si="7"/>
         <v>Thursday</v>
       </c>
       <c r="F513" t="s">
@@ -19140,7 +19142,7 @@
         <v>25</v>
       </c>
       <c r="D514" s="12" t="str">
-        <f>TEXT(B514, "dddd")</f>
+        <f t="shared" ref="D514:D577" si="8">TEXT(B514, "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="E514">
@@ -19164,7 +19166,7 @@
         <v>25</v>
       </c>
       <c r="D515" s="12" t="str">
-        <f>TEXT(B515, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="F515" t="s">
@@ -19185,7 +19187,7 @@
         <v>25</v>
       </c>
       <c r="D516" s="12" t="str">
-        <f>TEXT(B516, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="F516" t="s">
@@ -19206,7 +19208,7 @@
         <v>25</v>
       </c>
       <c r="D517" s="12" t="str">
-        <f>TEXT(B517, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E517">
@@ -19230,7 +19232,7 @@
         <v>24</v>
       </c>
       <c r="D518" s="12" t="str">
-        <f>TEXT(B518, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E518" s="12">
@@ -19254,7 +19256,7 @@
         <v>25</v>
       </c>
       <c r="D519" s="12" t="str">
-        <f>TEXT(B519, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E519" s="12">
@@ -19278,7 +19280,7 @@
         <v>24</v>
       </c>
       <c r="D520" s="12" t="str">
-        <f>TEXT(B520, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E520" s="12">
@@ -19302,7 +19304,7 @@
         <v>24</v>
       </c>
       <c r="D521" s="12" t="str">
-        <f>TEXT(B521, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="F521" s="12" t="s">
@@ -19323,7 +19325,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="12" t="str">
-        <f>TEXT(B522, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E522" s="12">
@@ -19347,7 +19349,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="12" t="str">
-        <f>TEXT(B523, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E523" s="12">
@@ -19371,7 +19373,7 @@
         <v>24</v>
       </c>
       <c r="D524" s="12" t="str">
-        <f>TEXT(B524, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E524" s="12">
@@ -19395,7 +19397,7 @@
         <v>24</v>
       </c>
       <c r="D525" s="12" t="str">
-        <f>TEXT(B525, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E525" s="12">
@@ -19419,7 +19421,7 @@
         <v>25</v>
       </c>
       <c r="D526" s="12" t="str">
-        <f>TEXT(B526, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E526" s="12">
@@ -19443,7 +19445,7 @@
         <v>24</v>
       </c>
       <c r="D527" s="12" t="str">
-        <f>TEXT(B527, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="F527" s="12" t="s">
@@ -19464,7 +19466,7 @@
         <v>24</v>
       </c>
       <c r="D528" s="12" t="str">
-        <f>TEXT(B528, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="F528" s="12" t="s">
@@ -19485,7 +19487,7 @@
         <v>25</v>
       </c>
       <c r="D529" s="12" t="str">
-        <f>TEXT(B529, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="F529" s="12" t="s">
@@ -19506,7 +19508,7 @@
         <v>24</v>
       </c>
       <c r="D530" s="12" t="str">
-        <f>TEXT(B530, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E530" s="12">
@@ -19530,7 +19532,7 @@
         <v>25</v>
       </c>
       <c r="D531" s="12" t="str">
-        <f>TEXT(B531, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E531" s="12">
@@ -19554,7 +19556,7 @@
         <v>24</v>
       </c>
       <c r="D532" s="12" t="str">
-        <f>TEXT(B532, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E532" s="12">
@@ -19578,7 +19580,7 @@
         <v>24</v>
       </c>
       <c r="D533" s="12" t="str">
-        <f>TEXT(B533, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E533" s="12">
@@ -19602,7 +19604,7 @@
         <v>25</v>
       </c>
       <c r="D534" s="12" t="str">
-        <f>TEXT(B534, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
       <c r="E534" s="12">
@@ -19626,7 +19628,7 @@
         <v>24</v>
       </c>
       <c r="D535" s="12" t="str">
-        <f>TEXT(B535, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E535" s="12">
@@ -19650,7 +19652,7 @@
         <v>25</v>
       </c>
       <c r="D536" s="12" t="str">
-        <f>TEXT(B536, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E536" s="12">
@@ -19674,7 +19676,7 @@
         <v>24</v>
       </c>
       <c r="D537" s="12" t="str">
-        <f>TEXT(B537, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E537" s="12">
@@ -19698,7 +19700,7 @@
         <v>24</v>
       </c>
       <c r="D538" s="12" t="str">
-        <f>TEXT(B538, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E538" s="12">
@@ -19722,7 +19724,7 @@
         <v>24</v>
       </c>
       <c r="D539" s="12" t="str">
-        <f>TEXT(B539, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E539" s="12">
@@ -19746,7 +19748,7 @@
         <v>25</v>
       </c>
       <c r="D540" s="12" t="str">
-        <f>TEXT(B540, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E540" s="12">
@@ -19770,7 +19772,7 @@
         <v>24</v>
       </c>
       <c r="D541" s="12" t="str">
-        <f>TEXT(B541, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E541" s="12">
@@ -19794,7 +19796,7 @@
         <v>24</v>
       </c>
       <c r="D542" s="12" t="str">
-        <f>TEXT(B542, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E542" s="12">
@@ -19818,7 +19820,7 @@
         <v>25</v>
       </c>
       <c r="D543" s="12" t="str">
-        <f>TEXT(B543, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E543" s="12">
@@ -19842,7 +19844,7 @@
         <v>24</v>
       </c>
       <c r="D544" s="12" t="str">
-        <f>TEXT(B544, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E544" s="12"/>
@@ -19864,7 +19866,7 @@
         <v>24</v>
       </c>
       <c r="D545" s="12" t="str">
-        <f>TEXT(B545, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E545" s="12"/>
@@ -19886,7 +19888,7 @@
         <v>25</v>
       </c>
       <c r="D546" s="12" t="str">
-        <f>TEXT(B546, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E546" s="12"/>
@@ -19908,7 +19910,7 @@
         <v>24</v>
       </c>
       <c r="D547" s="12" t="str">
-        <f>TEXT(B547, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E547" s="12">
@@ -19932,7 +19934,7 @@
         <v>25</v>
       </c>
       <c r="D548" s="12" t="str">
-        <f>TEXT(B548, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E548" s="12">
@@ -19956,7 +19958,7 @@
         <v>24</v>
       </c>
       <c r="D549" s="12" t="str">
-        <f>TEXT(B549, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E549" s="12">
@@ -19980,7 +19982,7 @@
         <v>24</v>
       </c>
       <c r="D550" s="12" t="str">
-        <f>TEXT(B550, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E550" s="12">
@@ -20004,7 +20006,7 @@
         <v>25</v>
       </c>
       <c r="D551" s="12" t="str">
-        <f>TEXT(B551, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
       <c r="E551" s="12">
@@ -20028,7 +20030,7 @@
         <v>24</v>
       </c>
       <c r="D552" s="12" t="str">
-        <f>TEXT(B552, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E552" s="12">
@@ -20052,7 +20054,7 @@
         <v>25</v>
       </c>
       <c r="D553" s="12" t="str">
-        <f>TEXT(B553, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E553" s="12">
@@ -20076,7 +20078,7 @@
         <v>24</v>
       </c>
       <c r="D554" s="12" t="str">
-        <f>TEXT(B554, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E554" s="12">
@@ -20100,7 +20102,7 @@
         <v>24</v>
       </c>
       <c r="D555" s="12" t="str">
-        <f>TEXT(B555, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E555" s="12">
@@ -20124,7 +20126,7 @@
         <v>24</v>
       </c>
       <c r="D556" s="12" t="str">
-        <f>TEXT(B556, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E556" s="12">
@@ -20148,7 +20150,7 @@
         <v>25</v>
       </c>
       <c r="D557" s="12" t="str">
-        <f>TEXT(B557, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E557" s="12">
@@ -20172,7 +20174,7 @@
         <v>24</v>
       </c>
       <c r="D558" s="12" t="str">
-        <f>TEXT(B558, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E558" s="12">
@@ -20196,7 +20198,7 @@
         <v>24</v>
       </c>
       <c r="D559" s="12" t="str">
-        <f>TEXT(B559, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E559" s="12">
@@ -20220,7 +20222,7 @@
         <v>25</v>
       </c>
       <c r="D560" s="12" t="str">
-        <f>TEXT(B560, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E560" s="12">
@@ -20244,7 +20246,7 @@
         <v>24</v>
       </c>
       <c r="D561" s="12" t="str">
-        <f>TEXT(B561, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E561" s="12">
@@ -20268,7 +20270,7 @@
         <v>24</v>
       </c>
       <c r="D562" s="12" t="str">
-        <f>TEXT(B562, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E562" s="12"/>
@@ -20290,7 +20292,7 @@
         <v>25</v>
       </c>
       <c r="D563" s="12" t="str">
-        <f>TEXT(B563, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E563" s="12"/>
@@ -20312,7 +20314,7 @@
         <v>24</v>
       </c>
       <c r="D564" s="12" t="str">
-        <f>TEXT(B564, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E564" s="12">
@@ -20336,7 +20338,7 @@
         <v>25</v>
       </c>
       <c r="D565" s="12" t="str">
-        <f>TEXT(B565, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E565" s="12">
@@ -20360,7 +20362,7 @@
         <v>24</v>
       </c>
       <c r="D566" s="12" t="str">
-        <f>TEXT(B566, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E566" s="12">
@@ -20384,7 +20386,7 @@
         <v>24</v>
       </c>
       <c r="D567" s="12" t="str">
-        <f>TEXT(B567, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E567" s="12">
@@ -20408,7 +20410,7 @@
         <v>25</v>
       </c>
       <c r="D568" s="12" t="str">
-        <f>TEXT(B568, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
       <c r="E568" s="12"/>
@@ -20430,7 +20432,7 @@
         <v>24</v>
       </c>
       <c r="D569" s="12" t="str">
-        <f>TEXT(B569, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E569" s="12">
@@ -20454,7 +20456,7 @@
         <v>25</v>
       </c>
       <c r="D570" s="12" t="str">
-        <f>TEXT(B570, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E570" s="12">
@@ -20478,7 +20480,7 @@
         <v>24</v>
       </c>
       <c r="D571" s="12" t="str">
-        <f>TEXT(B571, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E571" s="12">
@@ -20502,7 +20504,7 @@
         <v>24</v>
       </c>
       <c r="D572" s="12" t="str">
-        <f>TEXT(B572, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E572" s="12">
@@ -20526,7 +20528,7 @@
         <v>24</v>
       </c>
       <c r="D573" s="12" t="str">
-        <f>TEXT(B573, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E573" s="12">
@@ -20550,7 +20552,7 @@
         <v>25</v>
       </c>
       <c r="D574" s="12" t="str">
-        <f>TEXT(B574, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E574" s="12">
@@ -20574,7 +20576,7 @@
         <v>24</v>
       </c>
       <c r="D575" s="12" t="str">
-        <f>TEXT(B575, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E575" s="12">
@@ -20598,7 +20600,7 @@
         <v>24</v>
       </c>
       <c r="D576" s="12" t="str">
-        <f>TEXT(B576, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E576" s="12">
@@ -20622,7 +20624,7 @@
         <v>25</v>
       </c>
       <c r="D577" s="12" t="str">
-        <f>TEXT(B577, "dddd")</f>
+        <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
       <c r="E577" s="12">
@@ -20646,7 +20648,7 @@
         <v>24</v>
       </c>
       <c r="D578" s="12" t="str">
-        <f>TEXT(B578, "dddd")</f>
+        <f t="shared" ref="D578:D619" si="9">TEXT(B578, "dddd")</f>
         <v>Tuesday</v>
       </c>
       <c r="E578" s="12">
@@ -20670,7 +20672,7 @@
         <v>24</v>
       </c>
       <c r="D579" s="12" t="str">
-        <f>TEXT(B579, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E579" s="12"/>
@@ -20692,7 +20694,7 @@
         <v>25</v>
       </c>
       <c r="D580" s="12" t="str">
-        <f>TEXT(B580, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E580" s="12"/>
@@ -20714,7 +20716,7 @@
         <v>24</v>
       </c>
       <c r="D581" s="12" t="str">
-        <f>TEXT(B581, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E581" s="12"/>
@@ -20736,7 +20738,7 @@
         <v>25</v>
       </c>
       <c r="D582" s="12" t="str">
-        <f>TEXT(B582, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E582" s="12">
@@ -20760,7 +20762,7 @@
         <v>24</v>
       </c>
       <c r="D583" s="12" t="str">
-        <f>TEXT(B583, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E583" s="12">
@@ -20784,7 +20786,7 @@
         <v>24</v>
       </c>
       <c r="D584" s="12" t="str">
-        <f>TEXT(B584, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E584" s="12">
@@ -20808,7 +20810,7 @@
         <v>25</v>
       </c>
       <c r="D585" s="12" t="str">
-        <f>TEXT(B585, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Tuesday</v>
       </c>
       <c r="E585" s="12">
@@ -20832,7 +20834,7 @@
         <v>24</v>
       </c>
       <c r="D586" s="13" t="str">
-        <f>TEXT(B586, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E586" s="13">
@@ -20856,7 +20858,7 @@
         <v>25</v>
       </c>
       <c r="D587" s="13" t="str">
-        <f>TEXT(B587, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E587" s="13">
@@ -20880,7 +20882,7 @@
         <v>24</v>
       </c>
       <c r="D588" s="13" t="str">
-        <f>TEXT(B588, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E588" s="13">
@@ -20904,7 +20906,7 @@
         <v>24</v>
       </c>
       <c r="D589" s="13" t="str">
-        <f>TEXT(B589, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E589" s="13">
@@ -20928,7 +20930,7 @@
         <v>24</v>
       </c>
       <c r="D590" s="13" t="str">
-        <f>TEXT(B590, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E590" s="13">
@@ -20952,7 +20954,7 @@
         <v>25</v>
       </c>
       <c r="D591" s="13" t="str">
-        <f>TEXT(B591, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E591" s="13">
@@ -20976,7 +20978,7 @@
         <v>24</v>
       </c>
       <c r="D592" s="13" t="str">
-        <f>TEXT(B592, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E592" s="13">
@@ -21000,7 +21002,7 @@
         <v>24</v>
       </c>
       <c r="D593" s="13" t="str">
-        <f>TEXT(B593, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E593" s="13">
@@ -21024,7 +21026,7 @@
         <v>25</v>
       </c>
       <c r="D594" s="13" t="str">
-        <f>TEXT(B594, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E594" s="13"/>
@@ -21046,7 +21048,7 @@
         <v>24</v>
       </c>
       <c r="D595" s="13" t="str">
-        <f>TEXT(B595, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E595" s="13">
@@ -21070,7 +21072,7 @@
         <v>24</v>
       </c>
       <c r="D596" s="13" t="str">
-        <f>TEXT(B596, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E596" s="13"/>
@@ -21092,7 +21094,7 @@
         <v>25</v>
       </c>
       <c r="D597" s="13" t="str">
-        <f>TEXT(B597, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E597" s="13"/>
@@ -21114,7 +21116,7 @@
         <v>24</v>
       </c>
       <c r="D598" s="13" t="str">
-        <f>TEXT(B598, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E598" s="13">
@@ -21138,7 +21140,7 @@
         <v>25</v>
       </c>
       <c r="D599" s="13" t="str">
-        <f>TEXT(B599, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E599" s="13">
@@ -21162,7 +21164,7 @@
         <v>24</v>
       </c>
       <c r="D600" s="13" t="str">
-        <f>TEXT(B600, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E600" s="13">
@@ -21186,7 +21188,7 @@
         <v>24</v>
       </c>
       <c r="D601" s="13" t="str">
-        <f>TEXT(B601, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E601" s="13">
@@ -21210,7 +21212,7 @@
         <v>25</v>
       </c>
       <c r="D602" s="13" t="str">
-        <f>TEXT(B602, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Monday</v>
       </c>
       <c r="E602" s="13">
@@ -21234,7 +21236,7 @@
         <v>24</v>
       </c>
       <c r="D603" s="14" t="str">
-        <f>TEXT(B603, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E603" s="14">
@@ -21258,7 +21260,7 @@
         <v>25</v>
       </c>
       <c r="D604" s="14" t="str">
-        <f>TEXT(B604, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E604" s="14">
@@ -21282,7 +21284,7 @@
         <v>24</v>
       </c>
       <c r="D605" s="14" t="str">
-        <f>TEXT(B605, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E605" s="14">
@@ -21306,7 +21308,7 @@
         <v>24</v>
       </c>
       <c r="D606" s="14" t="str">
-        <f>TEXT(B606, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E606" s="14">
@@ -21330,7 +21332,7 @@
         <v>24</v>
       </c>
       <c r="D607" s="14" t="str">
-        <f>TEXT(B607, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E607" s="14">
@@ -21354,7 +21356,7 @@
         <v>25</v>
       </c>
       <c r="D608" s="14" t="str">
-        <f>TEXT(B608, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E608" s="14">
@@ -21378,7 +21380,7 @@
         <v>24</v>
       </c>
       <c r="D609" s="14" t="str">
-        <f>TEXT(B609, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E609" s="14">
@@ -21402,7 +21404,7 @@
         <v>24</v>
       </c>
       <c r="D610" s="14" t="str">
-        <f>TEXT(B610, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E610" s="14">
@@ -21426,7 +21428,7 @@
         <v>25</v>
       </c>
       <c r="D611" s="14" t="str">
-        <f>TEXT(B611, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E611" s="14"/>
@@ -21448,7 +21450,7 @@
         <v>24</v>
       </c>
       <c r="D612" s="14" t="str">
-        <f>TEXT(B612, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E612" s="14">
@@ -21472,7 +21474,7 @@
         <v>24</v>
       </c>
       <c r="D613" s="14" t="str">
-        <f>TEXT(B613, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E613" s="14"/>
@@ -21494,7 +21496,7 @@
         <v>25</v>
       </c>
       <c r="D614" s="14" t="str">
-        <f>TEXT(B614, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E614" s="14"/>
@@ -21516,7 +21518,7 @@
         <v>24</v>
       </c>
       <c r="D615" s="14" t="str">
-        <f>TEXT(B615, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E615" s="14">
@@ -21540,7 +21542,7 @@
         <v>25</v>
       </c>
       <c r="D616" s="14" t="str">
-        <f>TEXT(B616, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E616" s="14">
@@ -21564,7 +21566,7 @@
         <v>24</v>
       </c>
       <c r="D617" s="14" t="str">
-        <f>TEXT(B617, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E617" s="14">
@@ -21588,7 +21590,7 @@
         <v>24</v>
       </c>
       <c r="D618" s="14" t="str">
-        <f>TEXT(B618, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E618" s="14">
@@ -21612,7 +21614,7 @@
         <v>25</v>
       </c>
       <c r="D619" s="14" t="str">
-        <f>TEXT(B619, "dddd")</f>
+        <f t="shared" si="9"/>
         <v>Friday</v>
       </c>
       <c r="E619" s="14">
@@ -21622,6 +21624,1999 @@
         <v>40</v>
       </c>
       <c r="G619" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B620" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C620" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D620" s="16" t="str">
+        <f t="shared" ref="D620:D636" si="10">TEXT(B620, "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="E620" s="16">
+        <v>6150</v>
+      </c>
+      <c r="F620" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G620" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B621" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C621" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D621" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E621" s="16">
+        <v>11123</v>
+      </c>
+      <c r="F621" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G621" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B622" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C622" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D622" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E622" s="16">
+        <v>6241</v>
+      </c>
+      <c r="F622" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G622" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B623" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C623" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D623" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E623" s="16"/>
+      <c r="F623" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G623" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B624" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C624" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D624" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E624" s="16">
+        <v>858</v>
+      </c>
+      <c r="F624" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G624" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B625" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C625" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D625" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E625" s="16"/>
+      <c r="F625" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G625" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B626" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C626" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D626" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E626" s="16"/>
+      <c r="F626" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G626" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C627" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D627" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E627" s="16"/>
+      <c r="F627" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G627" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B628" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C628" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D628" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E628" s="16"/>
+      <c r="F628" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G628" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B629" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C629" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D629" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E629" s="16"/>
+      <c r="F629" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G629" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B630" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C630" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D630" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E630" s="16"/>
+      <c r="F630" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G630" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B631" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C631" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D631" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E631" s="16"/>
+      <c r="F631" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G631" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B632" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C632" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D632" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E632" s="16">
+        <v>11852</v>
+      </c>
+      <c r="F632" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G632" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B633" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C633" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D633" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E633" s="16">
+        <v>18084</v>
+      </c>
+      <c r="F633" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G633" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B634" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C634" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D634" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E634" s="16">
+        <v>9120</v>
+      </c>
+      <c r="F634" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G634" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B635" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C635" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D635" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E635" s="16">
+        <v>6847</v>
+      </c>
+      <c r="F635" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G635" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B636" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C636" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D636" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>Thursday</v>
+      </c>
+      <c r="E636" s="16">
+        <v>4372</v>
+      </c>
+      <c r="F636" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G636" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B637" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C637" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D637" s="16" t="str">
+        <f t="shared" ref="D637:D653" si="11">TEXT(B637, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="E637" s="16">
+        <v>2543</v>
+      </c>
+      <c r="F637" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G637" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B638" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C638" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D638" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E638" s="16">
+        <v>4552</v>
+      </c>
+      <c r="F638" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G638" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B639" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C639" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D639" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E639" s="16">
+        <v>3095</v>
+      </c>
+      <c r="F639" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G639" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B640" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C640" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D640" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E640" s="16"/>
+      <c r="F640" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G640" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B641" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C641" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D641" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E641" s="16"/>
+      <c r="F641" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G641" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B642" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C642" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D642" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E642" s="16"/>
+      <c r="F642" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G642" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B643" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C643" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D643" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E643" s="16">
+        <v>4273</v>
+      </c>
+      <c r="F643" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G643" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C644" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D644" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E644" s="16"/>
+      <c r="F644" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G644" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C645" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D645" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E645" s="16"/>
+      <c r="F645" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G645" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C646" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D646" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E646" s="16">
+        <v>2156</v>
+      </c>
+      <c r="F646" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G646" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C647" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D647" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E647" s="16">
+        <v>452</v>
+      </c>
+      <c r="F647" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G647" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B648" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C648" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D648" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E648" s="16"/>
+      <c r="F648" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G648" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C649" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D649" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E649" s="16">
+        <v>11863</v>
+      </c>
+      <c r="F649" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G649" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B650" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C650" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D650" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E650" s="16">
+        <v>20226</v>
+      </c>
+      <c r="F650" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G650" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B651" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C651" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D651" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E651" s="16">
+        <v>4126</v>
+      </c>
+      <c r="F651" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G651" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B652" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C652" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D652" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E652" s="16">
+        <v>5150</v>
+      </c>
+      <c r="F652" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G652" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B653" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C653" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D653" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="E653" s="16">
+        <v>4828</v>
+      </c>
+      <c r="F653" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G653" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B654" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C654" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D654" s="16" t="str">
+        <f t="shared" ref="D654:D670" si="12">TEXT(B654, "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E654" s="16">
+        <v>2730</v>
+      </c>
+      <c r="F654" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G654" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B655" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C655" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D655" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E655" s="16">
+        <f>1152+1344</f>
+        <v>2496</v>
+      </c>
+      <c r="F655" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G655" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B656" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C656" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D656" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E656" s="16">
+        <v>4744</v>
+      </c>
+      <c r="F656" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G656" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B657" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C657" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D657" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E657" s="16"/>
+      <c r="F657" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G657" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B658" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C658" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D658" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E658" s="16"/>
+      <c r="F658" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G658" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B659" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C659" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D659" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E659" s="16"/>
+      <c r="F659" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G659" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C660" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D660" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E660" s="16">
+        <v>6880</v>
+      </c>
+      <c r="F660" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G660" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B661" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C661" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D661" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E661" s="16"/>
+      <c r="F661" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G661" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B662" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C662" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D662" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E662" s="16">
+        <v>1668</v>
+      </c>
+      <c r="F662" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G662" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B663" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C663" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D663" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E663">
+        <v>924</v>
+      </c>
+      <c r="F663" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G663" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B664" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C664" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D664" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E664" s="16">
+        <v>9523</v>
+      </c>
+      <c r="F664" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G664" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B665" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C665" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D665" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E665" s="16">
+        <v>1146</v>
+      </c>
+      <c r="F665" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G665" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B666" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C666" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D666" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E666" s="16">
+        <v>13925</v>
+      </c>
+      <c r="F666" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G666" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B667" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C667" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D667" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E667" s="16">
+        <v>15907</v>
+      </c>
+      <c r="F667" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G667" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B668" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C668" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D668" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E668" s="16">
+        <v>4210</v>
+      </c>
+      <c r="F668" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G668" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B669" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C669" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D669" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E669" s="16">
+        <v>4761</v>
+      </c>
+      <c r="F669" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G669" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B670" s="2">
+        <v>45951</v>
+      </c>
+      <c r="C670" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D670" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="E670" s="16">
+        <v>3072</v>
+      </c>
+      <c r="F670" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G670" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B671" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C671" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D671" s="16" t="str">
+        <f t="shared" ref="D671:D687" si="13">TEXT(B671, "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="E671" s="16">
+        <v>5671</v>
+      </c>
+      <c r="F671" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G671" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B672" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C672" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D672" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E672" s="16">
+        <v>2358</v>
+      </c>
+      <c r="F672" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G672" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B673" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C673" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D673" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E673" s="16">
+        <v>2088</v>
+      </c>
+      <c r="F673" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G673" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B674" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C674" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D674" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E674" s="16"/>
+      <c r="F674" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G674" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B675" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C675" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D675" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E675" s="16"/>
+      <c r="F675" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G675" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B676" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C676" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D676" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E676" s="16"/>
+      <c r="F676" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G676" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B677" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C677" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D677" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E677" s="16">
+        <v>6559</v>
+      </c>
+      <c r="F677" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G677" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C678" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D678" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E678" s="16"/>
+      <c r="F678" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G678" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C679" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D679" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E679" s="16">
+        <v>8140</v>
+      </c>
+      <c r="F679" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G679" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B680" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C680" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D680" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E680" s="16">
+        <v>1173</v>
+      </c>
+      <c r="F680" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G680" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B681" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C681" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D681" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E681" s="16">
+        <v>1330</v>
+      </c>
+      <c r="F681" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G681" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C682" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D682" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E682" s="16">
+        <v>9276</v>
+      </c>
+      <c r="F682" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G682" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B683" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C683" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D683" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E683" s="16">
+        <v>9395</v>
+      </c>
+      <c r="F683" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G683" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B684" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C684" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D684" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E684" s="16">
+        <v>8535</v>
+      </c>
+      <c r="F684" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G684" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A685" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B685" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C685" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D685" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E685" s="16">
+        <v>3650</v>
+      </c>
+      <c r="F685" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G685" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A686" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B686" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C686" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D686" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E686" s="16">
+        <v>5616</v>
+      </c>
+      <c r="F686" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G686" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A687" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B687" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C687" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D687" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+      <c r="E687" s="16">
+        <v>2280</v>
+      </c>
+      <c r="F687" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G687" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A688" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B688" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C688" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D688" s="16" t="str">
+        <f t="shared" ref="D688:D704" si="14">TEXT(B688, "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="E688" s="16">
+        <v>4445</v>
+      </c>
+      <c r="F688" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G688" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B689" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C689" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D689" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E689" s="16">
+        <v>842</v>
+      </c>
+      <c r="F689" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G689" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B690" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C690" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D690" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E690" s="16">
+        <v>5068</v>
+      </c>
+      <c r="F690" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G690" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B691" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C691" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D691" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E691" s="16"/>
+      <c r="F691" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G691" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B692" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C692" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D692" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E692" s="16">
+        <v>2317</v>
+      </c>
+      <c r="F692" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G692" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B693" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C693" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D693" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E693" s="16">
+        <v>958</v>
+      </c>
+      <c r="F693" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G693" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B694" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C694" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D694" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E694" s="16">
+        <v>3128</v>
+      </c>
+      <c r="F694" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G694" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C695" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D695" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E695" s="16">
+        <v>3089</v>
+      </c>
+      <c r="F695" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G695" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B696" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C696" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D696" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E696" s="16">
+        <v>2075</v>
+      </c>
+      <c r="F696" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G696" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B697" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C697" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D697" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E697" s="16">
+        <v>1870</v>
+      </c>
+      <c r="F697" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G697" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B698" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C698" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D698" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E698" s="16"/>
+      <c r="F698" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G698" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B699" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C699" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D699" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E699" s="16">
+        <v>9925</v>
+      </c>
+      <c r="F699" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G699" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B700" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C700" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D700" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E700" s="16">
+        <v>14694</v>
+      </c>
+      <c r="F700" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G700" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B701" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C701" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D701" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E701" s="16">
+        <v>15364</v>
+      </c>
+      <c r="F701" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G701" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B702" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C702" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D702" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E702" s="16">
+        <v>12371</v>
+      </c>
+      <c r="F702" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G702" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B703" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C703" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D703" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E703" s="16">
+        <v>5412</v>
+      </c>
+      <c r="F703" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G703" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B704" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C704" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D704" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+      <c r="E704" s="16">
+        <v>1840</v>
+      </c>
+      <c r="F704" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G704" s="16" t="s">
         <v>40</v>
       </c>
     </row>
